--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_25_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_25_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>227849.7214394365</v>
+        <v>217839.2785443563</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3488940.313178095</v>
+        <v>3488940.313178096</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.26683315033891</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>18.68867339138402</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.26683315033891</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>18.68867339138466</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>31.26683315033919</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>31.26683315033919</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>31.26683315033919</v>
       </c>
       <c r="U2" t="n">
-        <v>31.26683315033891</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31.26683315033919</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>31.26683315033891</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>31.26683315033891</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>31.26683315033919</v>
       </c>
       <c r="T3" t="n">
-        <v>27.53982663881851</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>31.26683315033891</v>
+        <v>31.26683315033919</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>27.53982663881876</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>37.52930446208639</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>33.05581137020567</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>37.52930446208639</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>37.52930446208639</v>
       </c>
       <c r="G5" t="n">
-        <v>33.05581137020575</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>37.52930446208646</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>37.52930446208646</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.52930446208646</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -977,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>36.33447707511626</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>37.52930446208639</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>37.52930446208639</v>
       </c>
       <c r="G6" t="n">
-        <v>37.52930446208646</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>37.52930446208646</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>34.25063875717578</v>
+        <v>34.25063875717579</v>
       </c>
       <c r="S6" t="n">
-        <v>36.33447707511644</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>40.45816317064483</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>40.45816317064483</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>38.61802642167716</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>45.40562735059407</v>
-      </c>
-      <c r="T8" t="n">
-        <v>45.40562735059407</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>36.24437026619552</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>3.748906304207694</v>
       </c>
       <c r="R9" t="n">
-        <v>33.24871511996928</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>45.40562735059407</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>45.40562735059407</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>45.40562735059407</v>
       </c>
       <c r="V9" t="n">
-        <v>2.995655146226266</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.468277882965447</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>96.78758242229645</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="G11" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>213.8998645763261</v>
       </c>
       <c r="U11" t="n">
-        <v>96.78758242229657</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>12.8258886552718</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>93.09630611656613</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>195.3283754674364</v>
@@ -1511,13 +1511,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>23.20403983092403</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>109.3143460295842</v>
       </c>
     </row>
     <row r="13">
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>78.28520899421817</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.43258009724633</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>7.352495282391885</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.150849970123488</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>191.22113434398</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>193.385415823184</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>161.483645379382</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>31.90177044380179</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>219.5565574740965</v>
       </c>
     </row>
     <row r="15">
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>12.8258886552718</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>93.09630611656613</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>154.7508334693185</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>23.20403983092346</v>
+        <v>148.4195019295253</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>78.28520899421808</v>
+        <v>33.32143611366126</v>
       </c>
       <c r="I16" t="n">
-        <v>96.43258009724633</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>7.352495282391892</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.150849970123495</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>91.13088952452711</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>31.90177044380178</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>102.2545262986572</v>
       </c>
       <c r="T17" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>64.88581197849481</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>75.98801171008384</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>107.8702810193205</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>14.70128436951478</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>114.0450725470474</v>
       </c>
       <c r="Y18" t="n">
         <v>157.8079400398083</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>191.2211343439799</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>191.2211343439803</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>31.9017704438018</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>102.2545262986572</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>91.13088952452711</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="X20" t="n">
-        <v>59.22911908072469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>113.3537734891645</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>41.49176570559234</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>14.70128436951479</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>12.82588865527181</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>93.09630611656613</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>154.7508334693185</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>191.2211343439803</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>191.2211343439797</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>14.42937683304266</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H23" t="n">
-        <v>146.5148369447966</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.3124908149276</v>
@@ -2380,10 +2380,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>115.3951316985127</v>
       </c>
       <c r="C24" t="n">
         <v>132.6551205385437</v>
@@ -2408,13 +2408,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U24" t="n">
-        <v>192.9489355813801</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>174.5627220424961</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>91.20174349589128</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>279.9159111551209</v>
       </c>
       <c r="V25" t="n">
-        <v>255.7849588823067</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>36.02510110790831</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2572,7 +2572,7 @@
         <v>402.4235511641288</v>
       </c>
       <c r="H26" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>255.1820181724345</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>24.06090502291296</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
@@ -2648,10 +2648,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>152.9662577680471</v>
+        <v>62.93647889560383</v>
       </c>
       <c r="U27" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
@@ -2699,10 +2699,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="28">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.88166847950853</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>106.6542841972354</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>147.7279382291306</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H29" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>148.4772424519394</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U29" t="n">
         <v>254.3124908149276</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>23.77799451897956</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>104.7337711575492</v>
       </c>
       <c r="H30" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>152.9662577680471</v>
+        <v>48.64285346914203</v>
       </c>
       <c r="U30" t="n">
         <v>195.2992474636072</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>97.88526065198775</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.88166847950853</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9159111551209</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>201.1888167328662</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>197.4064899777335</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>138.9000023092308</v>
+        <v>99.5935425810855</v>
       </c>
       <c r="C33" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
         <v>119.2878878475953</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>34.08873677909637</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U33" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>91.20174349589128</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>279.9159111551209</v>
       </c>
       <c r="V34" t="n">
-        <v>255.7849588823068</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>201.1407699223171</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>205.2753752298585</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>84.27970731149927</v>
       </c>
       <c r="T36" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>195.2992474636072</v>
@@ -3407,13 +3407,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
-        <v>43.18757041245772</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>44.03190971264875</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>255.7849588823068</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3517,7 +3517,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>112.0041091662161</v>
       </c>
       <c r="W38" t="n">
-        <v>114.0083697224743</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.9000023092308</v>
+        <v>123.9529939087009</v>
       </c>
       <c r="C39" t="n">
         <v>132.6551205385437</v>
@@ -3590,13 +3590,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>36.14522282805453</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>157.8079400398083</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>91.20174349589128</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V40" t="n">
-        <v>259.4219021912133</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>116.1775777146253</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>108.4043155504823</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>77.35380156413922</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
         <v>132.6551205385437</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>195.2992474636072</v>
@@ -3881,13 +3881,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>157.8079400398083</v>
+        <v>38.12716048172922</v>
       </c>
     </row>
     <row r="43">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>135.1572311320988</v>
+        <v>91.20174349589128</v>
       </c>
       <c r="G43" t="n">
         <v>164.5832153864156</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.89627765300733</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>313.6321329542048</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,22 +4058,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>58.58122432777904</v>
+        <v>48.19298769507705</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U45" t="n">
         <v>195.2992474636072</v>
@@ -4118,13 +4118,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.08405069248845</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>48.83113304013385</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>180.4957219934231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.96145426992907</v>
+        <v>52.96145426993002</v>
       </c>
       <c r="C2" t="n">
-        <v>52.96145426992907</v>
+        <v>52.96145426993002</v>
       </c>
       <c r="D2" t="n">
-        <v>34.0840063998442</v>
+        <v>52.96145426993002</v>
       </c>
       <c r="E2" t="n">
-        <v>2.501346652027113</v>
+        <v>52.96145426993002</v>
       </c>
       <c r="F2" t="n">
-        <v>2.501346652027113</v>
+        <v>34.0840063998445</v>
       </c>
       <c r="G2" t="n">
-        <v>2.501346652027113</v>
+        <v>34.0840063998445</v>
       </c>
       <c r="H2" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="I2" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="J2" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="K2" t="n">
-        <v>3.586988368706356</v>
+        <v>3.586988368706575</v>
       </c>
       <c r="L2" t="n">
-        <v>19.87903646971973</v>
+        <v>19.87903646972018</v>
       </c>
       <c r="M2" t="n">
-        <v>50.83320128855524</v>
+        <v>50.83320128855598</v>
       </c>
       <c r="N2" t="n">
-        <v>81.78736610739077</v>
+        <v>81.78736610739178</v>
       </c>
       <c r="O2" t="n">
-        <v>107.8531422385445</v>
+        <v>107.8531422385457</v>
       </c>
       <c r="P2" t="n">
-        <v>116.1267737655632</v>
+        <v>116.1267737655647</v>
       </c>
       <c r="Q2" t="n">
-        <v>116.1267737655632</v>
+        <v>116.1267737655647</v>
       </c>
       <c r="R2" t="n">
-        <v>116.1267737655632</v>
+        <v>116.1267737655647</v>
       </c>
       <c r="S2" t="n">
-        <v>116.1267737655632</v>
+        <v>84.54411401774738</v>
       </c>
       <c r="T2" t="n">
-        <v>116.1267737655632</v>
+        <v>52.96145426993002</v>
       </c>
       <c r="U2" t="n">
-        <v>84.54411401774615</v>
+        <v>52.96145426993002</v>
       </c>
       <c r="V2" t="n">
-        <v>84.54411401774615</v>
+        <v>52.96145426993002</v>
       </c>
       <c r="W2" t="n">
-        <v>84.54411401774615</v>
+        <v>52.96145426993002</v>
       </c>
       <c r="X2" t="n">
-        <v>84.54411401774615</v>
+        <v>52.96145426993002</v>
       </c>
       <c r="Y2" t="n">
-        <v>84.54411401774615</v>
+        <v>52.96145426993002</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.66666614766129</v>
+        <v>34.0840063998445</v>
       </c>
       <c r="C3" t="n">
-        <v>65.66666614766129</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="D3" t="n">
-        <v>65.66666614766129</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="E3" t="n">
-        <v>65.66666614766129</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="F3" t="n">
-        <v>65.66666614766129</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="G3" t="n">
-        <v>34.0840063998442</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="H3" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="I3" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="J3" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="K3" t="n">
-        <v>7.908332877647203</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="L3" t="n">
-        <v>14.17114023954383</v>
+        <v>14.17114023954396</v>
       </c>
       <c r="M3" t="n">
-        <v>45.12530505837935</v>
+        <v>45.12530505837975</v>
       </c>
       <c r="N3" t="n">
-        <v>76.07946987721488</v>
+        <v>76.07946987721554</v>
       </c>
       <c r="O3" t="n">
-        <v>107.0336346960504</v>
+        <v>107.0336346960513</v>
       </c>
       <c r="P3" t="n">
-        <v>125.0673326013556</v>
+        <v>125.0673326013568</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.0673326013556</v>
+        <v>125.0673326013568</v>
       </c>
       <c r="R3" t="n">
-        <v>125.0673326013556</v>
+        <v>125.0673326013568</v>
       </c>
       <c r="S3" t="n">
-        <v>125.0673326013556</v>
+        <v>93.48467285353939</v>
       </c>
       <c r="T3" t="n">
-        <v>97.24932589547836</v>
+        <v>93.48467285353939</v>
       </c>
       <c r="U3" t="n">
-        <v>65.66666614766129</v>
+        <v>61.90201310572203</v>
       </c>
       <c r="V3" t="n">
-        <v>65.66666614766129</v>
+        <v>34.0840063998445</v>
       </c>
       <c r="W3" t="n">
-        <v>65.66666614766129</v>
+        <v>34.0840063998445</v>
       </c>
       <c r="X3" t="n">
-        <v>65.66666614766129</v>
+        <v>34.0840063998445</v>
       </c>
       <c r="Y3" t="n">
-        <v>65.66666614766129</v>
+        <v>34.0840063998445</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="C4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="D4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="E4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="F4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="G4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="H4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="I4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="J4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="K4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="L4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="M4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="N4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="O4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="P4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="R4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="S4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="T4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="U4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="V4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="W4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="X4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027135</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>112.208829502804</v>
+        <v>150.1172178483455</v>
       </c>
       <c r="C5" t="n">
-        <v>112.208829502804</v>
+        <v>112.2088295028037</v>
       </c>
       <c r="D5" t="n">
-        <v>112.208829502804</v>
+        <v>78.81912104805053</v>
       </c>
       <c r="E5" t="n">
-        <v>112.208829502804</v>
+        <v>40.91073270250872</v>
       </c>
       <c r="F5" t="n">
-        <v>112.208829502804</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="G5" t="n">
-        <v>78.81912104805069</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="H5" t="n">
-        <v>40.9107327025088</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="I5" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="J5" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="K5" t="n">
-        <v>8.579347327526918</v>
+        <v>8.579347327526904</v>
       </c>
       <c r="L5" t="n">
-        <v>30.4433262173086</v>
+        <v>30.44332621730851</v>
       </c>
       <c r="M5" t="n">
-        <v>67.59733763477419</v>
+        <v>67.59733763477406</v>
       </c>
       <c r="N5" t="n">
-        <v>104.7513490522398</v>
+        <v>104.7513490522396</v>
       </c>
       <c r="O5" t="n">
-        <v>136.7661938505106</v>
+        <v>136.7661938505103</v>
       </c>
       <c r="P5" t="n">
-        <v>150.1172178483459</v>
+        <v>150.1172178483455</v>
       </c>
       <c r="Q5" t="n">
-        <v>150.1172178483459</v>
+        <v>150.1172178483455</v>
       </c>
       <c r="R5" t="n">
-        <v>112.208829502804</v>
+        <v>150.1172178483455</v>
       </c>
       <c r="S5" t="n">
-        <v>112.208829502804</v>
+        <v>150.1172178483455</v>
       </c>
       <c r="T5" t="n">
-        <v>112.208829502804</v>
+        <v>150.1172178483455</v>
       </c>
       <c r="U5" t="n">
-        <v>112.208829502804</v>
+        <v>150.1172178483455</v>
       </c>
       <c r="V5" t="n">
-        <v>112.208829502804</v>
+        <v>150.1172178483455</v>
       </c>
       <c r="W5" t="n">
-        <v>112.208829502804</v>
+        <v>150.1172178483455</v>
       </c>
       <c r="X5" t="n">
-        <v>112.208829502804</v>
+        <v>150.1172178483455</v>
       </c>
       <c r="Y5" t="n">
-        <v>112.208829502804</v>
+        <v>150.1172178483455</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.81912104805069</v>
+        <v>115.5206130431175</v>
       </c>
       <c r="C6" t="n">
-        <v>78.81912104805069</v>
+        <v>78.81912104805053</v>
       </c>
       <c r="D6" t="n">
-        <v>78.81912104805069</v>
+        <v>40.91073270250872</v>
       </c>
       <c r="E6" t="n">
-        <v>78.81912104805069</v>
+        <v>40.91073270250872</v>
       </c>
       <c r="F6" t="n">
-        <v>78.81912104805069</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="G6" t="n">
-        <v>40.9107327025088</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="H6" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="I6" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="J6" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="K6" t="n">
-        <v>11.45991954906474</v>
+        <v>11.4599195490647</v>
       </c>
       <c r="L6" t="n">
-        <v>41.59280229228324</v>
+        <v>41.59280229228314</v>
       </c>
       <c r="M6" t="n">
-        <v>54.60199107769687</v>
+        <v>78.74681370974866</v>
       </c>
       <c r="N6" t="n">
-        <v>91.75600249516246</v>
+        <v>115.9008251272142</v>
       </c>
       <c r="O6" t="n">
-        <v>128.4760412668174</v>
+        <v>128.4760412668172</v>
       </c>
       <c r="P6" t="n">
-        <v>150.1172178483459</v>
+        <v>150.1172178483455</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.1172178483459</v>
+        <v>150.1172178483455</v>
       </c>
       <c r="R6" t="n">
-        <v>115.5206130431178</v>
+        <v>115.5206130431175</v>
       </c>
       <c r="S6" t="n">
-        <v>78.81912104805069</v>
+        <v>115.5206130431175</v>
       </c>
       <c r="T6" t="n">
-        <v>78.81912104805069</v>
+        <v>115.5206130431175</v>
       </c>
       <c r="U6" t="n">
-        <v>78.81912104805069</v>
+        <v>115.5206130431175</v>
       </c>
       <c r="V6" t="n">
-        <v>78.81912104805069</v>
+        <v>115.5206130431175</v>
       </c>
       <c r="W6" t="n">
-        <v>78.81912104805069</v>
+        <v>115.5206130431175</v>
       </c>
       <c r="X6" t="n">
-        <v>78.81912104805069</v>
+        <v>115.5206130431175</v>
       </c>
       <c r="Y6" t="n">
-        <v>78.81912104805069</v>
+        <v>115.5206130431175</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="C7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="D7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="E7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="F7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="G7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="H7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="I7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="J7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="K7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="L7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="M7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="N7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="O7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="P7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="R7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="S7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="T7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="U7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="V7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="W7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="X7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966911</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.49928167354736</v>
+        <v>90.36355172465248</v>
       </c>
       <c r="C8" t="n">
         <v>44.49928167354736</v>
@@ -4792,13 +4792,13 @@
         <v>44.49928167354736</v>
       </c>
       <c r="F8" t="n">
-        <v>44.49928167354736</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49928167354736</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49928167354736</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="I8" t="n">
         <v>3.632450188047526</v>
@@ -4816,7 +4816,7 @@
         <v>81.98047155039913</v>
       </c>
       <c r="N8" t="n">
-        <v>126.9320426274873</v>
+        <v>126.9320426274872</v>
       </c>
       <c r="O8" t="n">
         <v>163.9777557138802</v>
@@ -4831,25 +4831,25 @@
         <v>136.2278217757576</v>
       </c>
       <c r="S8" t="n">
+        <v>136.2278217757576</v>
+      </c>
+      <c r="T8" t="n">
+        <v>136.2278217757576</v>
+      </c>
+      <c r="U8" t="n">
         <v>90.36355172465248</v>
       </c>
-      <c r="T8" t="n">
-        <v>44.49928167354736</v>
-      </c>
-      <c r="U8" t="n">
-        <v>44.49928167354736</v>
-      </c>
       <c r="V8" t="n">
-        <v>44.49928167354736</v>
+        <v>90.36355172465248</v>
       </c>
       <c r="W8" t="n">
-        <v>44.49928167354736</v>
+        <v>90.36355172465248</v>
       </c>
       <c r="X8" t="n">
-        <v>44.49928167354736</v>
+        <v>90.36355172465248</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.49928167354736</v>
+        <v>90.36355172465248</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.632450188047526</v>
+        <v>86.10719525551177</v>
       </c>
       <c r="C9" t="n">
-        <v>3.632450188047526</v>
+        <v>86.10719525551177</v>
       </c>
       <c r="D9" t="n">
-        <v>3.632450188047526</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="E9" t="n">
         <v>3.632450188047526</v>
@@ -4892,13 +4892,13 @@
         <v>48.27145091008538</v>
       </c>
       <c r="M9" t="n">
-        <v>71.45797305435997</v>
+        <v>93.2230219871735</v>
       </c>
       <c r="N9" t="n">
-        <v>116.4095441314481</v>
+        <v>138.1745930642616</v>
       </c>
       <c r="O9" t="n">
-        <v>156.9306452111043</v>
+        <v>178.6956941439178</v>
       </c>
       <c r="P9" t="n">
         <v>181.6225094023763</v>
@@ -4907,28 +4907,28 @@
         <v>177.835735357722</v>
       </c>
       <c r="R9" t="n">
-        <v>144.2511746304803</v>
+        <v>177.835735357722</v>
       </c>
       <c r="S9" t="n">
-        <v>98.38690457937521</v>
+        <v>177.835735357722</v>
       </c>
       <c r="T9" t="n">
-        <v>52.52263452827009</v>
+        <v>177.835735357722</v>
       </c>
       <c r="U9" t="n">
-        <v>6.658364477164966</v>
+        <v>131.9714653066169</v>
       </c>
       <c r="V9" t="n">
-        <v>3.632450188047526</v>
+        <v>131.9714653066169</v>
       </c>
       <c r="W9" t="n">
-        <v>3.632450188047526</v>
+        <v>131.9714653066169</v>
       </c>
       <c r="X9" t="n">
-        <v>3.632450188047526</v>
+        <v>131.9714653066169</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.632450188047526</v>
+        <v>131.9714653066169</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="C10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="D10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="E10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="F10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="G10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="H10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="I10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="J10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="K10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="L10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="M10" t="n">
         <v>3.632450188047526</v>
@@ -4989,25 +4989,25 @@
         <v>5.115559160739896</v>
       </c>
       <c r="S10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="T10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="U10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="V10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="W10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="X10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>461.1131255556978</v>
+        <v>337.1040598468091</v>
       </c>
       <c r="C11" t="n">
-        <v>461.1131255556978</v>
+        <v>337.1040598468091</v>
       </c>
       <c r="D11" t="n">
-        <v>461.1131255556978</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="E11" t="n">
-        <v>461.1131255556978</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="F11" t="n">
-        <v>461.1131255556978</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G11" t="n">
-        <v>239.3388250768127</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H11" t="n">
         <v>17.56452459792769</v>
@@ -5041,52 +5041,52 @@
         <v>17.56452459792769</v>
       </c>
       <c r="J11" t="n">
-        <v>61.76566646422702</v>
+        <v>61.76566646422691</v>
       </c>
       <c r="K11" t="n">
-        <v>148.5608200474253</v>
+        <v>148.5608200474251</v>
       </c>
       <c r="L11" t="n">
-        <v>271.1830965723308</v>
+        <v>271.1830965723307</v>
       </c>
       <c r="M11" t="n">
-        <v>420.4501281543858</v>
+        <v>420.4501281543857</v>
       </c>
       <c r="N11" t="n">
-        <v>574.0010487547427</v>
+        <v>574.0010487547423</v>
       </c>
       <c r="O11" t="n">
-        <v>713.5940480809667</v>
+        <v>713.5940480809663</v>
       </c>
       <c r="P11" t="n">
-        <v>818.7605380598412</v>
+        <v>818.760538059841</v>
       </c>
       <c r="Q11" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="R11" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="S11" t="n">
-        <v>774.9388295947107</v>
+        <v>774.9388295947105</v>
       </c>
       <c r="T11" t="n">
-        <v>558.8783603256943</v>
+        <v>558.8783603256941</v>
       </c>
       <c r="U11" t="n">
-        <v>461.1131255556978</v>
+        <v>558.8783603256941</v>
       </c>
       <c r="V11" t="n">
-        <v>461.1131255556978</v>
+        <v>337.1040598468091</v>
       </c>
       <c r="W11" t="n">
-        <v>461.1131255556978</v>
+        <v>337.1040598468091</v>
       </c>
       <c r="X11" t="n">
-        <v>461.1131255556978</v>
+        <v>337.1040598468091</v>
       </c>
       <c r="Y11" t="n">
-        <v>461.1131255556978</v>
+        <v>337.1040598468091</v>
       </c>
     </row>
     <row r="12">
@@ -5123,16 +5123,16 @@
         <v>36.2691938677774</v>
       </c>
       <c r="K12" t="n">
-        <v>99.89115689943307</v>
+        <v>99.8911568994331</v>
       </c>
       <c r="L12" t="n">
         <v>204.1993668012281</v>
       </c>
       <c r="M12" t="n">
-        <v>333.7616594659743</v>
+        <v>333.7616594659744</v>
       </c>
       <c r="N12" t="n">
-        <v>472.5885816838001</v>
+        <v>472.5885816838002</v>
       </c>
       <c r="O12" t="n">
         <v>590.5890764168994</v>
@@ -5144,25 +5144,25 @@
         <v>715.3219541700623</v>
       </c>
       <c r="R12" t="n">
-        <v>702.3665110839293</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="S12" t="n">
-        <v>608.329838238913</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="T12" t="n">
-        <v>452.0158650375812</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="U12" t="n">
-        <v>254.7144756765343</v>
+        <v>518.0205648090155</v>
       </c>
       <c r="V12" t="n">
-        <v>41.00294866956813</v>
+        <v>304.3090378020493</v>
       </c>
       <c r="W12" t="n">
-        <v>17.56452459792769</v>
+        <v>304.3090378020493</v>
       </c>
       <c r="X12" t="n">
-        <v>17.56452459792769</v>
+        <v>127.9830559409421</v>
       </c>
       <c r="Y12" t="n">
         <v>17.56452459792769</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>201.4739027533382</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C13" t="n">
-        <v>201.4739027533382</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D13" t="n">
-        <v>201.4739027533382</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E13" t="n">
-        <v>201.4739027533382</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F13" t="n">
-        <v>201.4739027533382</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G13" t="n">
-        <v>201.4739027533382</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H13" t="n">
-        <v>122.3979340723097</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I13" t="n">
-        <v>24.99128750943465</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J13" t="n">
         <v>17.56452459792769</v>
@@ -5205,46 +5205,46 @@
         <v>37.55032788682519</v>
       </c>
       <c r="L13" t="n">
-        <v>75.23712329476716</v>
+        <v>75.23712329476717</v>
       </c>
       <c r="M13" t="n">
         <v>116.292169594557</v>
       </c>
       <c r="N13" t="n">
-        <v>159.5533166477872</v>
+        <v>159.5533166477873</v>
       </c>
       <c r="O13" t="n">
-        <v>191.2851869593632</v>
+        <v>191.2851869593633</v>
       </c>
       <c r="P13" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="Q13" t="n">
-        <v>201.4739027533382</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="R13" t="n">
-        <v>201.4739027533382</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="S13" t="n">
-        <v>201.4739027533382</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="T13" t="n">
-        <v>201.4739027533382</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="U13" t="n">
-        <v>201.4739027533382</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="V13" t="n">
-        <v>201.4739027533382</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="W13" t="n">
-        <v>201.4739027533382</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="X13" t="n">
-        <v>201.4739027533382</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="Y13" t="n">
-        <v>201.4739027533382</v>
+        <v>17.56452459792769</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>878.2262298963847</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="C14" t="n">
-        <v>878.2262298963847</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="D14" t="n">
-        <v>878.2262298963847</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="E14" t="n">
-        <v>656.4519294174996</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="F14" t="n">
-        <v>434.6776289386146</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="G14" t="n">
-        <v>271.5628356261075</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="H14" t="n">
-        <v>49.78853514722244</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I14" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="J14" t="n">
-        <v>61.76566646422701</v>
+        <v>61.76566646422715</v>
       </c>
       <c r="K14" t="n">
-        <v>148.5608200474251</v>
+        <v>148.5608200474254</v>
       </c>
       <c r="L14" t="n">
-        <v>271.1830965723307</v>
+        <v>271.1830965723312</v>
       </c>
       <c r="M14" t="n">
-        <v>420.4501281543858</v>
+        <v>420.4501281543864</v>
       </c>
       <c r="N14" t="n">
-        <v>574.0010487547426</v>
+        <v>574.0010487547436</v>
       </c>
       <c r="O14" t="n">
-        <v>713.5940480809666</v>
+        <v>713.5940480809677</v>
       </c>
       <c r="P14" t="n">
-        <v>818.7605380598411</v>
+        <v>818.7605380598422</v>
       </c>
       <c r="Q14" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963859</v>
       </c>
       <c r="R14" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963859</v>
       </c>
       <c r="S14" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963859</v>
       </c>
       <c r="T14" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963859</v>
       </c>
       <c r="U14" t="n">
-        <v>878.2262298963847</v>
+        <v>656.4519294175005</v>
       </c>
       <c r="V14" t="n">
-        <v>878.2262298963847</v>
+        <v>434.6776289386152</v>
       </c>
       <c r="W14" t="n">
-        <v>878.2262298963847</v>
+        <v>434.6776289386152</v>
       </c>
       <c r="X14" t="n">
-        <v>878.2262298963847</v>
+        <v>434.6776289386152</v>
       </c>
       <c r="Y14" t="n">
-        <v>878.2262298963847</v>
+        <v>212.9033284597298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.56452459792769</v>
+        <v>232.7633102899218</v>
       </c>
       <c r="C15" t="n">
-        <v>17.56452459792769</v>
+        <v>232.7633102899218</v>
       </c>
       <c r="D15" t="n">
-        <v>17.56452459792769</v>
+        <v>232.7633102899218</v>
       </c>
       <c r="E15" t="n">
-        <v>17.56452459792769</v>
+        <v>232.7633102899218</v>
       </c>
       <c r="F15" t="n">
-        <v>17.56452459792769</v>
+        <v>123.8034304724264</v>
       </c>
       <c r="G15" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="H15" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I15" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="J15" t="n">
-        <v>36.26919386777739</v>
+        <v>36.26919386777749</v>
       </c>
       <c r="K15" t="n">
-        <v>99.89115689943301</v>
+        <v>99.89115689943324</v>
       </c>
       <c r="L15" t="n">
-        <v>204.1993668012279</v>
+        <v>204.1993668012283</v>
       </c>
       <c r="M15" t="n">
-        <v>333.7616594659742</v>
+        <v>333.7616594659747</v>
       </c>
       <c r="N15" t="n">
-        <v>472.5885816837999</v>
+        <v>472.5885816838006</v>
       </c>
       <c r="O15" t="n">
-        <v>590.589076416899</v>
+        <v>590.5890764169</v>
       </c>
       <c r="P15" t="n">
-        <v>677.4649847190638</v>
+        <v>677.4649847190649</v>
       </c>
       <c r="Q15" t="n">
-        <v>715.3219541700619</v>
+        <v>715.3219541700631</v>
       </c>
       <c r="R15" t="n">
-        <v>702.3665110839287</v>
+        <v>715.3219541700631</v>
       </c>
       <c r="S15" t="n">
-        <v>608.3298382389124</v>
+        <v>715.3219541700631</v>
       </c>
       <c r="T15" t="n">
-        <v>452.0158650375806</v>
+        <v>559.0079809687313</v>
       </c>
       <c r="U15" t="n">
-        <v>254.7144756765337</v>
+        <v>559.0079809687313</v>
       </c>
       <c r="V15" t="n">
-        <v>41.00294866956756</v>
+        <v>559.0079809687313</v>
       </c>
       <c r="W15" t="n">
-        <v>17.56452459792769</v>
+        <v>409.089292151029</v>
       </c>
       <c r="X15" t="n">
-        <v>17.56452459792769</v>
+        <v>232.7633102899218</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.56452459792769</v>
+        <v>232.7633102899218</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>201.4739027533381</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="C16" t="n">
-        <v>201.4739027533381</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="D16" t="n">
-        <v>201.4739027533381</v>
+        <v>51.22254087435323</v>
       </c>
       <c r="E16" t="n">
-        <v>201.4739027533381</v>
+        <v>51.22254087435323</v>
       </c>
       <c r="F16" t="n">
-        <v>201.4739027533381</v>
+        <v>51.22254087435323</v>
       </c>
       <c r="G16" t="n">
-        <v>201.4739027533381</v>
+        <v>51.22254087435323</v>
       </c>
       <c r="H16" t="n">
-        <v>122.3979340723097</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I16" t="n">
-        <v>24.99128750943466</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="J16" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="K16" t="n">
-        <v>37.55032788682517</v>
+        <v>37.55032788682527</v>
       </c>
       <c r="L16" t="n">
-        <v>75.23712329476713</v>
+        <v>75.23712329476733</v>
       </c>
       <c r="M16" t="n">
-        <v>116.2921695945569</v>
+        <v>116.2921695945572</v>
       </c>
       <c r="N16" t="n">
-        <v>159.5533166477871</v>
+        <v>159.5533166477875</v>
       </c>
       <c r="O16" t="n">
-        <v>191.2851869593632</v>
+        <v>191.2851869593637</v>
       </c>
       <c r="P16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="Q16" t="n">
-        <v>201.4739027533381</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="R16" t="n">
-        <v>201.4739027533381</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="S16" t="n">
-        <v>201.4739027533381</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="T16" t="n">
-        <v>201.4739027533381</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="U16" t="n">
-        <v>201.4739027533381</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="V16" t="n">
-        <v>201.4739027533381</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="W16" t="n">
-        <v>201.4739027533381</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="X16" t="n">
-        <v>201.4739027533381</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="Y16" t="n">
-        <v>201.4739027533381</v>
+        <v>210.7171855514432</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>49.78853514722242</v>
+        <v>774.9388295947124</v>
       </c>
       <c r="C17" t="n">
-        <v>49.78853514722242</v>
+        <v>774.9388295947124</v>
       </c>
       <c r="D17" t="n">
-        <v>49.78853514722242</v>
+        <v>682.887426034584</v>
       </c>
       <c r="E17" t="n">
-        <v>49.78853514722242</v>
+        <v>461.1131255556986</v>
       </c>
       <c r="F17" t="n">
-        <v>49.78853514722242</v>
+        <v>239.3388250768132</v>
       </c>
       <c r="G17" t="n">
-        <v>49.78853514722242</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="H17" t="n">
-        <v>49.78853514722242</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I17" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J17" t="n">
-        <v>61.76566646422691</v>
+        <v>61.76566646422714</v>
       </c>
       <c r="K17" t="n">
-        <v>148.560820047425</v>
+        <v>148.5608200474256</v>
       </c>
       <c r="L17" t="n">
-        <v>271.1830965723305</v>
+        <v>271.1830965723314</v>
       </c>
       <c r="M17" t="n">
-        <v>420.4501281543855</v>
+        <v>420.4501281543867</v>
       </c>
       <c r="N17" t="n">
-        <v>574.0010487547423</v>
+        <v>574.0010487547438</v>
       </c>
       <c r="O17" t="n">
-        <v>713.5940480809664</v>
+        <v>713.594048080968</v>
       </c>
       <c r="P17" t="n">
-        <v>818.7605380598411</v>
+        <v>818.7605380598426</v>
       </c>
       <c r="Q17" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963863</v>
       </c>
       <c r="R17" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963863</v>
       </c>
       <c r="S17" t="n">
-        <v>774.9388295947106</v>
+        <v>774.9388295947124</v>
       </c>
       <c r="T17" t="n">
-        <v>558.8783603256943</v>
+        <v>774.9388295947124</v>
       </c>
       <c r="U17" t="n">
-        <v>337.1040598468093</v>
+        <v>774.9388295947124</v>
       </c>
       <c r="V17" t="n">
-        <v>115.3297593679243</v>
+        <v>774.9388295947124</v>
       </c>
       <c r="W17" t="n">
-        <v>49.78853514722242</v>
+        <v>774.9388295947124</v>
       </c>
       <c r="X17" t="n">
-        <v>49.78853514722242</v>
+        <v>774.9388295947124</v>
       </c>
       <c r="Y17" t="n">
-        <v>49.78853514722242</v>
+        <v>774.9388295947124</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>415.6169618983057</v>
+        <v>243.4215621960307</v>
       </c>
       <c r="C18" t="n">
-        <v>281.6218906472514</v>
+        <v>243.4215621960307</v>
       </c>
       <c r="D18" t="n">
-        <v>281.6218906472514</v>
+        <v>126.5244044154231</v>
       </c>
       <c r="E18" t="n">
-        <v>204.8663232633283</v>
+        <v>126.5244044154231</v>
       </c>
       <c r="F18" t="n">
-        <v>95.90644344583291</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="G18" t="n">
-        <v>95.90644344583291</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="H18" t="n">
-        <v>32.41430678935676</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I18" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J18" t="n">
-        <v>36.2691938677774</v>
+        <v>36.26919386777749</v>
       </c>
       <c r="K18" t="n">
-        <v>99.89115689943307</v>
+        <v>99.89115689943324</v>
       </c>
       <c r="L18" t="n">
-        <v>204.1993668012281</v>
+        <v>204.1993668012283</v>
       </c>
       <c r="M18" t="n">
-        <v>333.7616594659743</v>
+        <v>333.7616594659747</v>
       </c>
       <c r="N18" t="n">
-        <v>472.5885816838001</v>
+        <v>472.5885816838006</v>
       </c>
       <c r="O18" t="n">
-        <v>590.5890764168994</v>
+        <v>590.5890764169</v>
       </c>
       <c r="P18" t="n">
-        <v>677.4649847190642</v>
+        <v>677.4649847190649</v>
       </c>
       <c r="Q18" t="n">
-        <v>715.3219541700623</v>
+        <v>715.3219541700631</v>
       </c>
       <c r="R18" t="n">
-        <v>715.3219541700623</v>
+        <v>715.3219541700631</v>
       </c>
       <c r="S18" t="n">
-        <v>715.3219541700623</v>
+        <v>715.3219541700631</v>
       </c>
       <c r="T18" t="n">
-        <v>715.3219541700623</v>
+        <v>715.3219541700631</v>
       </c>
       <c r="U18" t="n">
-        <v>715.3219541700623</v>
+        <v>518.0205648090163</v>
       </c>
       <c r="V18" t="n">
-        <v>715.3219541700623</v>
+        <v>518.0205648090163</v>
       </c>
       <c r="W18" t="n">
-        <v>715.3219541700623</v>
+        <v>518.0205648090163</v>
       </c>
       <c r="X18" t="n">
-        <v>715.3219541700623</v>
+        <v>402.8235218322007</v>
       </c>
       <c r="Y18" t="n">
-        <v>555.9199945338923</v>
+        <v>243.4215621960307</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="C19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="D19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="E19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="F19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="G19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="H19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="K19" t="n">
-        <v>37.55032788682519</v>
+        <v>37.55032788682527</v>
       </c>
       <c r="L19" t="n">
-        <v>75.23712329476716</v>
+        <v>75.23712329476733</v>
       </c>
       <c r="M19" t="n">
-        <v>116.292169594557</v>
+        <v>116.2921695945572</v>
       </c>
       <c r="N19" t="n">
-        <v>159.5533166477872</v>
+        <v>159.5533166477875</v>
       </c>
       <c r="O19" t="n">
-        <v>191.2851869593632</v>
+        <v>191.2851869593637</v>
       </c>
       <c r="P19" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="Q19" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="R19" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="S19" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="T19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="U19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="V19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="W19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="X19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>271.5628356261075</v>
+        <v>461.1131255556986</v>
       </c>
       <c r="C20" t="n">
-        <v>49.78853514722245</v>
+        <v>461.1131255556986</v>
       </c>
       <c r="D20" t="n">
-        <v>49.78853514722245</v>
+        <v>461.1131255556986</v>
       </c>
       <c r="E20" t="n">
-        <v>49.78853514722245</v>
+        <v>239.3388250768132</v>
       </c>
       <c r="F20" t="n">
-        <v>49.78853514722245</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="G20" t="n">
-        <v>49.78853514722245</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="H20" t="n">
-        <v>49.78853514722245</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I20" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J20" t="n">
-        <v>61.76566646422725</v>
+        <v>61.76566646422737</v>
       </c>
       <c r="K20" t="n">
-        <v>148.5608200474255</v>
+        <v>148.5608200474256</v>
       </c>
       <c r="L20" t="n">
-        <v>271.1830965723309</v>
+        <v>271.1830965723315</v>
       </c>
       <c r="M20" t="n">
-        <v>420.4501281543858</v>
+        <v>420.4501281543867</v>
       </c>
       <c r="N20" t="n">
-        <v>574.0010487547427</v>
+        <v>574.0010487547438</v>
       </c>
       <c r="O20" t="n">
-        <v>713.5940480809666</v>
+        <v>713.5940480809679</v>
       </c>
       <c r="P20" t="n">
-        <v>818.760538059841</v>
+        <v>818.7605380598426</v>
       </c>
       <c r="Q20" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963863</v>
       </c>
       <c r="R20" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963863</v>
       </c>
       <c r="S20" t="n">
-        <v>774.9388295947106</v>
+        <v>774.9388295947124</v>
       </c>
       <c r="T20" t="n">
-        <v>774.9388295947106</v>
+        <v>682.887426034584</v>
       </c>
       <c r="U20" t="n">
-        <v>774.9388295947106</v>
+        <v>682.887426034584</v>
       </c>
       <c r="V20" t="n">
-        <v>774.9388295947106</v>
+        <v>682.887426034584</v>
       </c>
       <c r="W20" t="n">
-        <v>774.9388295947106</v>
+        <v>461.1131255556986</v>
       </c>
       <c r="X20" t="n">
-        <v>715.1114365838775</v>
+        <v>461.1131255556986</v>
       </c>
       <c r="Y20" t="n">
-        <v>493.3371361049925</v>
+        <v>461.1131255556986</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>254.7144756765337</v>
+        <v>132.0632856980939</v>
       </c>
       <c r="C21" t="n">
-        <v>254.7144756765337</v>
+        <v>132.0632856980939</v>
       </c>
       <c r="D21" t="n">
-        <v>137.8173178959262</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="E21" t="n">
-        <v>137.8173178959262</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="F21" t="n">
-        <v>137.8173178959262</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="G21" t="n">
-        <v>95.90644344583291</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="H21" t="n">
-        <v>32.41430678935677</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I21" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J21" t="n">
-        <v>36.26919386777737</v>
+        <v>36.26919386777749</v>
       </c>
       <c r="K21" t="n">
-        <v>99.89115689943299</v>
+        <v>99.89115689943324</v>
       </c>
       <c r="L21" t="n">
-        <v>204.1993668012279</v>
+        <v>204.1993668012283</v>
       </c>
       <c r="M21" t="n">
-        <v>333.7616594659742</v>
+        <v>333.7616594659747</v>
       </c>
       <c r="N21" t="n">
-        <v>472.5885816837998</v>
+        <v>472.5885816838006</v>
       </c>
       <c r="O21" t="n">
-        <v>590.589076416899</v>
+        <v>590.5890764169</v>
       </c>
       <c r="P21" t="n">
-        <v>677.4649847190638</v>
+        <v>677.4649847190649</v>
       </c>
       <c r="Q21" t="n">
-        <v>715.3219541700619</v>
+        <v>715.3219541700631</v>
       </c>
       <c r="R21" t="n">
-        <v>702.3665110839287</v>
+        <v>715.3219541700631</v>
       </c>
       <c r="S21" t="n">
-        <v>608.3298382389124</v>
+        <v>715.3219541700631</v>
       </c>
       <c r="T21" t="n">
-        <v>452.0158650375806</v>
+        <v>559.0079809687313</v>
       </c>
       <c r="U21" t="n">
-        <v>254.7144756765337</v>
+        <v>559.0079809687313</v>
       </c>
       <c r="V21" t="n">
-        <v>254.7144756765337</v>
+        <v>345.2964539617651</v>
       </c>
       <c r="W21" t="n">
-        <v>254.7144756765337</v>
+        <v>132.0632856980939</v>
       </c>
       <c r="X21" t="n">
-        <v>254.7144756765337</v>
+        <v>132.0632856980939</v>
       </c>
       <c r="Y21" t="n">
-        <v>254.7144756765337</v>
+        <v>132.0632856980939</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="C22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="D22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="E22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="F22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="G22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="H22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="K22" t="n">
-        <v>37.55032788682516</v>
+        <v>37.55032788682527</v>
       </c>
       <c r="L22" t="n">
-        <v>75.2371232947671</v>
+        <v>75.23712329476733</v>
       </c>
       <c r="M22" t="n">
-        <v>116.2921695945569</v>
+        <v>116.2921695945572</v>
       </c>
       <c r="N22" t="n">
-        <v>159.5533166477871</v>
+        <v>159.5533166477875</v>
       </c>
       <c r="O22" t="n">
-        <v>191.2851869593631</v>
+        <v>191.2851869593637</v>
       </c>
       <c r="P22" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="Q22" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="R22" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="S22" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="T22" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="U22" t="n">
-        <v>210.7171855514426</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="V22" t="n">
-        <v>210.7171855514426</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="W22" t="n">
-        <v>210.7171855514426</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="X22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="Y22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792773</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>600.0790050110893</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="C23" t="n">
-        <v>600.0790050110893</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="D23" t="n">
-        <v>600.0790050110893</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="E23" t="n">
-        <v>185.738789527986</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="F23" t="n">
-        <v>185.738789527986</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G23" t="n">
-        <v>185.738789527986</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H23" t="n">
-        <v>37.74400473526221</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I23" t="n">
-        <v>37.74400473526225</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J23" t="n">
         <v>151.4749218512231</v>
@@ -5998,16 +5998,16 @@
         <v>594.3775951131297</v>
       </c>
       <c r="M23" t="n">
-        <v>887.4914597655647</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N23" t="n">
-        <v>1187.216805582614</v>
+        <v>1187.216805582613</v>
       </c>
       <c r="O23" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P23" t="n">
-        <v>1687.808675484974</v>
+        <v>1687.808675484973</v>
       </c>
       <c r="Q23" t="n">
         <v>1835.740277181655</v>
@@ -6016,25 +6016,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S23" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T23" t="n">
-        <v>1590.558164392902</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="U23" t="n">
-        <v>1333.67686053944</v>
+        <v>1630.318932909648</v>
       </c>
       <c r="V23" t="n">
-        <v>983.8393058759207</v>
+        <v>1280.481378246129</v>
       </c>
       <c r="W23" t="n">
-        <v>600.0790050110893</v>
+        <v>1280.481378246129</v>
       </c>
       <c r="X23" t="n">
-        <v>600.0790050110893</v>
+        <v>879.8379804150811</v>
       </c>
       <c r="Y23" t="n">
-        <v>600.0790050110893</v>
+        <v>879.8379804150811</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>683.0535714964635</v>
+        <v>409.1290497745961</v>
       </c>
       <c r="C24" t="n">
-        <v>549.0585002454092</v>
+        <v>275.1339785235418</v>
       </c>
       <c r="D24" t="n">
-        <v>432.1613424648016</v>
+        <v>158.2368207429342</v>
       </c>
       <c r="E24" t="n">
-        <v>311.6685264571296</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F24" t="n">
-        <v>202.7086466396342</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G24" t="n">
-        <v>96.91695860170569</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H24" t="n">
-        <v>37.74400473526221</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I24" t="n">
-        <v>38.28095199337147</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J24" t="n">
         <v>98.39707907527369</v>
@@ -6098,22 +6098,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T24" t="n">
-        <v>1426.912595986079</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U24" t="n">
-        <v>1232.014681257412</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="V24" t="n">
-        <v>1232.014681257412</v>
+        <v>861.4177303612801</v>
       </c>
       <c r="W24" t="n">
-        <v>1018.781512993741</v>
+        <v>861.4177303612801</v>
       </c>
       <c r="X24" t="n">
-        <v>842.4555311326335</v>
+        <v>685.0917485001728</v>
       </c>
       <c r="Y24" t="n">
-        <v>683.0535714964635</v>
+        <v>525.6897888640028</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1346.088246826315</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="C25" t="n">
-        <v>1346.088246826315</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="D25" t="n">
-        <v>1346.088246826315</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="E25" t="n">
-        <v>1346.088246826315</v>
+        <v>203.9896768427527</v>
       </c>
       <c r="F25" t="n">
-        <v>1346.088246826315</v>
+        <v>203.9896768427527</v>
       </c>
       <c r="G25" t="n">
-        <v>1346.088246826315</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H25" t="n">
-        <v>1346.088246826315</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I25" t="n">
-        <v>1346.088246826315</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J25" t="n">
-        <v>1364.789494308498</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K25" t="n">
-        <v>1427.468776269658</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L25" t="n">
-        <v>1519.788525527849</v>
+        <v>211.444283436796</v>
       </c>
       <c r="M25" t="n">
-        <v>1618.446361557358</v>
+        <v>310.1021194663056</v>
       </c>
       <c r="N25" t="n">
-        <v>1717.940632749101</v>
+        <v>409.5963906580484</v>
       </c>
       <c r="O25" t="n">
-        <v>1801.612894797479</v>
+        <v>493.2686527064269</v>
       </c>
       <c r="P25" t="n">
-        <v>1865.488871500339</v>
+        <v>557.1446294092871</v>
       </c>
       <c r="Q25" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="R25" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S25" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T25" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U25" t="n">
-        <v>1604.456892161978</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="V25" t="n">
-        <v>1346.088246826315</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="W25" t="n">
-        <v>1346.088246826315</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="X25" t="n">
-        <v>1346.088246826315</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="Y25" t="n">
-        <v>1346.088246826315</v>
+        <v>296.1126500709257</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1189.621491340992</v>
+        <v>1279.603067784</v>
       </c>
       <c r="C26" t="n">
-        <v>1189.621491340992</v>
+        <v>1279.603067784</v>
       </c>
       <c r="D26" t="n">
-        <v>1189.621491340992</v>
+        <v>1279.603067784</v>
       </c>
       <c r="E26" t="n">
-        <v>1153.232500322903</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="F26" t="n">
-        <v>732.2020882765901</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G26" t="n">
-        <v>325.7136527572681</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H26" t="n">
         <v>37.74400473526219</v>
       </c>
       <c r="I26" t="n">
-        <v>37.74400473526202</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J26" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K26" t="n">
         <v>342.4771847987903</v>
       </c>
       <c r="L26" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131299</v>
       </c>
       <c r="M26" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N26" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P26" t="n">
         <v>1687.808675484973</v>
@@ -6253,25 +6253,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S26" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T26" t="n">
-        <v>1590.558164392902</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="U26" t="n">
-        <v>1590.558164392902</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="V26" t="n">
-        <v>1590.558164392902</v>
+        <v>1537.36268209959</v>
       </c>
       <c r="W26" t="n">
-        <v>1590.558164392902</v>
+        <v>1279.603067784</v>
       </c>
       <c r="X26" t="n">
-        <v>1590.558164392902</v>
+        <v>1279.603067784</v>
       </c>
       <c r="Y26" t="n">
-        <v>1189.621491340992</v>
+        <v>1279.603067784</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>623.88061763002</v>
+        <v>460.3647256779274</v>
       </c>
       <c r="C27" t="n">
-        <v>489.8855463789657</v>
+        <v>326.3696544268731</v>
       </c>
       <c r="D27" t="n">
-        <v>372.9883885983581</v>
+        <v>326.3696544268731</v>
       </c>
       <c r="E27" t="n">
-        <v>252.4955725906861</v>
+        <v>205.8768384192011</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5356927731907</v>
+        <v>96.91695860170567</v>
       </c>
       <c r="G27" t="n">
-        <v>37.74400473526219</v>
+        <v>96.91695860170567</v>
       </c>
       <c r="H27" t="n">
         <v>37.74400473526219</v>
@@ -6335,22 +6335,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T27" t="n">
-        <v>1272.401224503203</v>
+        <v>1363.340395081429</v>
       </c>
       <c r="U27" t="n">
-        <v>1075.129257368246</v>
+        <v>1363.340395081429</v>
       </c>
       <c r="V27" t="n">
-        <v>861.4177303612801</v>
+        <v>1149.628868074462</v>
       </c>
       <c r="W27" t="n">
-        <v>648.1845620976088</v>
+        <v>936.3956998107913</v>
       </c>
       <c r="X27" t="n">
-        <v>648.1845620976088</v>
+        <v>760.069717949684</v>
       </c>
       <c r="Y27" t="n">
-        <v>648.1845620976088</v>
+        <v>600.667758313514</v>
       </c>
     </row>
     <row r="28">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.74400473526219</v>
+        <v>197.2386494123522</v>
       </c>
       <c r="C28" t="n">
-        <v>37.74400473526219</v>
+        <v>197.2386494123522</v>
       </c>
       <c r="D28" t="n">
         <v>37.74400473526219</v>
@@ -6411,25 +6411,25 @@
         <v>578.8559946720579</v>
       </c>
       <c r="S28" t="n">
-        <v>555.7431982281099</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T28" t="n">
-        <v>320.4873493363945</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U28" t="n">
-        <v>37.74400473526219</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="V28" t="n">
-        <v>37.74400473526219</v>
+        <v>304.9702496115798</v>
       </c>
       <c r="W28" t="n">
-        <v>37.74400473526219</v>
+        <v>197.2386494123522</v>
       </c>
       <c r="X28" t="n">
-        <v>37.74400473526219</v>
+        <v>197.2386494123522</v>
       </c>
       <c r="Y28" t="n">
-        <v>37.74400473526219</v>
+        <v>197.2386494123522</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>746.7440648035805</v>
+        <v>1268.697246424417</v>
       </c>
       <c r="C29" t="n">
-        <v>746.7440648035805</v>
+        <v>858.5726557376875</v>
       </c>
       <c r="D29" t="n">
-        <v>746.7440648035805</v>
+        <v>858.5726557376875</v>
       </c>
       <c r="E29" t="n">
-        <v>746.7440648035805</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="F29" t="n">
-        <v>325.7136527572681</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G29" t="n">
-        <v>325.7136527572681</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H29" t="n">
         <v>37.7440047352622</v>
@@ -6463,19 +6463,19 @@
         <v>37.7440047352622</v>
       </c>
       <c r="J29" t="n">
-        <v>151.4749218512235</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K29" t="n">
-        <v>342.4771847987907</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L29" t="n">
-        <v>594.3775951131302</v>
+        <v>594.3775951131299</v>
       </c>
       <c r="M29" t="n">
-        <v>887.4914597655647</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N29" t="n">
-        <v>1187.216805582614</v>
+        <v>1187.216805582613</v>
       </c>
       <c r="O29" t="n">
         <v>1464.838169622267</v>
@@ -6493,22 +6493,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T29" t="n">
-        <v>1737.223224185394</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="U29" t="n">
-        <v>1480.341920331931</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="V29" t="n">
-        <v>1130.504365668412</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="W29" t="n">
-        <v>746.7440648035805</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="X29" t="n">
-        <v>746.7440648035805</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="Y29" t="n">
-        <v>746.7440648035805</v>
+        <v>1417.917386049802</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>226.7268229214317</v>
+        <v>277.530764024245</v>
       </c>
       <c r="C30" t="n">
-        <v>226.7268229214317</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="D30" t="n">
-        <v>226.7268229214317</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="E30" t="n">
-        <v>226.7268229214317</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="F30" t="n">
-        <v>202.7086466396342</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="G30" t="n">
-        <v>96.91695860170569</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H30" t="n">
         <v>37.7440047352622</v>
@@ -6569,25 +6569,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S30" t="n">
-        <v>1341.182798307179</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="T30" t="n">
-        <v>1186.671426824303</v>
+        <v>1377.778400562703</v>
       </c>
       <c r="U30" t="n">
-        <v>989.3994596893464</v>
+        <v>1180.506433427746</v>
       </c>
       <c r="V30" t="n">
-        <v>775.6879326823802</v>
+        <v>966.7949064207802</v>
       </c>
       <c r="W30" t="n">
-        <v>562.4547644187089</v>
+        <v>753.5617381571089</v>
       </c>
       <c r="X30" t="n">
-        <v>386.1287825576017</v>
+        <v>577.2357562960017</v>
       </c>
       <c r="Y30" t="n">
-        <v>226.7268229214317</v>
+        <v>417.8337966598316</v>
       </c>
     </row>
     <row r="31">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.7440047352622</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="C31" t="n">
-        <v>37.7440047352622</v>
+        <v>197.2386494123522</v>
       </c>
       <c r="D31" t="n">
         <v>37.7440047352622</v>
@@ -6648,25 +6648,25 @@
         <v>578.8559946720579</v>
       </c>
       <c r="S31" t="n">
-        <v>555.7431982281099</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T31" t="n">
-        <v>320.4873493363945</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U31" t="n">
-        <v>37.7440047352622</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="V31" t="n">
-        <v>37.7440047352622</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="W31" t="n">
-        <v>37.7440047352622</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="X31" t="n">
-        <v>37.7440047352622</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="Y31" t="n">
-        <v>37.7440047352622</v>
+        <v>296.1126500709257</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>873.114632264678</v>
+        <v>1277.578562171617</v>
       </c>
       <c r="C32" t="n">
-        <v>873.114632264678</v>
+        <v>1277.578562171617</v>
       </c>
       <c r="D32" t="n">
         <v>873.114632264678</v>
@@ -6688,34 +6688,34 @@
         <v>458.7744167815746</v>
       </c>
       <c r="F32" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="G32" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="H32" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I32" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526271</v>
       </c>
       <c r="J32" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512236</v>
       </c>
       <c r="K32" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987909</v>
       </c>
       <c r="L32" t="n">
-        <v>594.3775951131298</v>
+        <v>594.3775951131302</v>
       </c>
       <c r="M32" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655645</v>
       </c>
       <c r="N32" t="n">
-        <v>1187.216805582613</v>
+        <v>1187.216805582614</v>
       </c>
       <c r="O32" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P32" t="n">
         <v>1687.808675484973</v>
@@ -6724,28 +6724,28 @@
         <v>1835.740277181655</v>
       </c>
       <c r="R32" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="S32" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="T32" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="U32" t="n">
-        <v>1683.979209760215</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="V32" t="n">
-        <v>1683.979209760215</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="W32" t="n">
-        <v>1683.979209760215</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="X32" t="n">
-        <v>1283.335811929167</v>
+        <v>1687.799741836107</v>
       </c>
       <c r="Y32" t="n">
-        <v>1283.335811929167</v>
+        <v>1687.799741836107</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>292.2318919939885</v>
+        <v>409.1290497745961</v>
       </c>
       <c r="C33" t="n">
-        <v>158.2368207429342</v>
+        <v>275.1339785235418</v>
       </c>
       <c r="D33" t="n">
         <v>158.2368207429342</v>
       </c>
       <c r="E33" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="F33" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="G33" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="H33" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I33" t="n">
-        <v>38.28095199337146</v>
+        <v>38.28095199337147</v>
       </c>
       <c r="J33" t="n">
         <v>98.39707907527369</v>
@@ -6809,22 +6809,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T33" t="n">
-        <v>1392.479528532446</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U33" t="n">
-        <v>1195.20756139749</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="V33" t="n">
-        <v>981.4960343905235</v>
+        <v>1058.689697496237</v>
       </c>
       <c r="W33" t="n">
-        <v>768.2628661268523</v>
+        <v>845.4565292325657</v>
       </c>
       <c r="X33" t="n">
-        <v>591.9368842657451</v>
+        <v>669.1305473714585</v>
       </c>
       <c r="Y33" t="n">
-        <v>432.5349246295751</v>
+        <v>509.7285877352886</v>
       </c>
     </row>
     <row r="34">
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.7440047352622</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="C34" t="n">
-        <v>37.7440047352622</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="D34" t="n">
-        <v>37.7440047352622</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="E34" t="n">
-        <v>37.7440047352622</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="F34" t="n">
-        <v>37.7440047352622</v>
+        <v>203.9896768427527</v>
       </c>
       <c r="G34" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="H34" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I34" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="J34" t="n">
-        <v>56.4452522174457</v>
+        <v>56.44525221744571</v>
       </c>
       <c r="K34" t="n">
-        <v>119.1245341786054</v>
+        <v>119.1245341786055</v>
       </c>
       <c r="L34" t="n">
-        <v>211.444283436796</v>
+        <v>211.4442834367961</v>
       </c>
       <c r="M34" t="n">
         <v>310.1021194663056</v>
@@ -6894,16 +6894,16 @@
         <v>296.1126500709257</v>
       </c>
       <c r="V34" t="n">
-        <v>37.7440047352622</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="W34" t="n">
-        <v>37.7440047352622</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="X34" t="n">
-        <v>37.7440047352622</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="Y34" t="n">
-        <v>37.7440047352622</v>
+        <v>296.1126500709257</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1887.20023676311</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="C35" t="n">
-        <v>1477.07564607638</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="D35" t="n">
-        <v>1072.611716169441</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="E35" t="n">
-        <v>865.2628523008966</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="F35" t="n">
-        <v>444.2324402545842</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="G35" t="n">
-        <v>37.7440047352622</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H35" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I35" t="n">
-        <v>37.74400473526262</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J35" t="n">
-        <v>151.4749218512235</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K35" t="n">
-        <v>342.4771847987907</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L35" t="n">
-        <v>594.3775951131302</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M35" t="n">
-        <v>887.4914597655647</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N35" t="n">
-        <v>1187.216805582614</v>
+        <v>1187.216805582613</v>
       </c>
       <c r="O35" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P35" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q35" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R35" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S35" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T35" t="n">
-        <v>1887.20023676311</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="U35" t="n">
-        <v>1887.20023676311</v>
+        <v>1333.676860539439</v>
       </c>
       <c r="V35" t="n">
-        <v>1887.20023676311</v>
+        <v>1333.676860539439</v>
       </c>
       <c r="W35" t="n">
-        <v>1887.20023676311</v>
+        <v>949.9165596746079</v>
       </c>
       <c r="X35" t="n">
-        <v>1887.20023676311</v>
+        <v>949.9165596746079</v>
       </c>
       <c r="Y35" t="n">
-        <v>1887.20023676311</v>
+        <v>949.9165596746079</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>978.3765703691226</v>
+        <v>577.2618834585351</v>
       </c>
       <c r="C36" t="n">
-        <v>844.3814991180684</v>
+        <v>443.2668122074807</v>
       </c>
       <c r="D36" t="n">
-        <v>727.4843413374608</v>
+        <v>326.3696544268731</v>
       </c>
       <c r="E36" t="n">
-        <v>606.9915253297888</v>
+        <v>205.8768384192011</v>
       </c>
       <c r="F36" t="n">
-        <v>498.0316455122934</v>
+        <v>96.91695860170567</v>
       </c>
       <c r="G36" t="n">
-        <v>498.0316455122934</v>
+        <v>96.91695860170567</v>
       </c>
       <c r="H36" t="n">
-        <v>498.0316455122934</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I36" t="n">
-        <v>498.5685927704026</v>
+        <v>38.28095199337145</v>
       </c>
       <c r="J36" t="n">
-        <v>558.6847198523049</v>
+        <v>98.39707907527368</v>
       </c>
       <c r="K36" t="n">
-        <v>693.0854602047134</v>
+        <v>232.7978194276822</v>
       </c>
       <c r="L36" t="n">
-        <v>892.5644708578968</v>
+        <v>432.2768300808657</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.186599082843</v>
+        <v>672.8989583058121</v>
       </c>
       <c r="N36" t="n">
-        <v>1386.012780239293</v>
+        <v>925.7251394622621</v>
       </c>
       <c r="O36" t="n">
-        <v>1608.300325338226</v>
+        <v>1148.012684561194</v>
       </c>
       <c r="P36" t="n">
-        <v>1778.87578566774</v>
+        <v>1318.588144890709</v>
       </c>
       <c r="Q36" t="n">
-        <v>1872.683689066186</v>
+        <v>1412.396048289155</v>
       </c>
       <c r="R36" t="n">
-        <v>1887.20023676311</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="S36" t="n">
-        <v>1887.20023676311</v>
+        <v>1341.781578499716</v>
       </c>
       <c r="T36" t="n">
-        <v>1732.688865280234</v>
+        <v>1341.781578499716</v>
       </c>
       <c r="U36" t="n">
-        <v>1535.416898145278</v>
+        <v>1144.509611364759</v>
       </c>
       <c r="V36" t="n">
-        <v>1321.705371138311</v>
+        <v>930.798084357793</v>
       </c>
       <c r="W36" t="n">
-        <v>1321.705371138311</v>
+        <v>717.5649160941217</v>
       </c>
       <c r="X36" t="n">
-        <v>1278.081562640879</v>
+        <v>717.5649160941217</v>
       </c>
       <c r="Y36" t="n">
-        <v>1118.679603004709</v>
+        <v>717.5649160941217</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>534.3793181946349</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="C37" t="n">
-        <v>363.2859457563515</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="D37" t="n">
-        <v>363.2859457563515</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="E37" t="n">
-        <v>202.3751306246709</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="F37" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G37" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H37" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I37" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J37" t="n">
         <v>56.4452522174457</v>
@@ -7128,19 +7128,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U37" t="n">
-        <v>578.8559946720579</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="V37" t="n">
-        <v>578.8559946720579</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="W37" t="n">
-        <v>578.8559946720579</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="X37" t="n">
-        <v>578.8559946720579</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="Y37" t="n">
-        <v>578.8559946720579</v>
+        <v>37.74400473526219</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1277.578562171617</v>
+        <v>1279.603067784</v>
       </c>
       <c r="C38" t="n">
-        <v>1277.578562171617</v>
+        <v>1279.603067784</v>
       </c>
       <c r="D38" t="n">
-        <v>873.114632264678</v>
+        <v>1279.603067784</v>
       </c>
       <c r="E38" t="n">
-        <v>458.7744167815746</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="F38" t="n">
-        <v>37.74400473526219</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G38" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H38" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I38" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526225</v>
       </c>
       <c r="J38" t="n">
-        <v>151.4749218512231</v>
+        <v>151.4749218512229</v>
       </c>
       <c r="K38" t="n">
         <v>342.4771847987903</v>
@@ -7183,19 +7183,19 @@
         <v>594.3775951131297</v>
       </c>
       <c r="M38" t="n">
-        <v>887.4914597655642</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N38" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O38" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P38" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q38" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R38" t="n">
         <v>1887.20023676311</v>
@@ -7210,16 +7210,16 @@
         <v>1802.959711252748</v>
       </c>
       <c r="V38" t="n">
-        <v>1802.959711252748</v>
+        <v>1689.824247448489</v>
       </c>
       <c r="W38" t="n">
-        <v>1687.799741836107</v>
+        <v>1689.824247448489</v>
       </c>
       <c r="X38" t="n">
-        <v>1687.799741836107</v>
+        <v>1689.824247448489</v>
       </c>
       <c r="Y38" t="n">
-        <v>1687.799741836107</v>
+        <v>1689.824247448489</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>539.898127711292</v>
+        <v>518.0889295920915</v>
       </c>
       <c r="C39" t="n">
-        <v>405.9030564602377</v>
+        <v>384.0938583410372</v>
       </c>
       <c r="D39" t="n">
-        <v>289.0058986796301</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="E39" t="n">
-        <v>252.4955725906861</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5356927731907</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G39" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H39" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I39" t="n">
-        <v>38.28095199337145</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J39" t="n">
-        <v>98.39707907527368</v>
+        <v>98.39707907527369</v>
       </c>
       <c r="K39" t="n">
         <v>232.7978194276822</v>
@@ -7292,13 +7292,13 @@
         <v>1015.929101844156</v>
       </c>
       <c r="W39" t="n">
-        <v>1015.929101844156</v>
+        <v>802.6959335804846</v>
       </c>
       <c r="X39" t="n">
-        <v>839.6031199830486</v>
+        <v>802.6959335804846</v>
       </c>
       <c r="Y39" t="n">
-        <v>680.2011603468786</v>
+        <v>643.2939739443146</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37.74400473526219</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="C40" t="n">
-        <v>37.74400473526219</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="D40" t="n">
-        <v>37.74400473526219</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="E40" t="n">
-        <v>37.74400473526219</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="F40" t="n">
-        <v>37.74400473526219</v>
+        <v>203.9896768427527</v>
       </c>
       <c r="G40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J40" t="n">
         <v>56.4452522174457</v>
@@ -7365,19 +7365,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U40" t="n">
-        <v>578.8559946720579</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="V40" t="n">
-        <v>316.8136692263878</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="W40" t="n">
-        <v>37.74400473526219</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="X40" t="n">
-        <v>37.74400473526219</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="Y40" t="n">
-        <v>37.74400473526219</v>
+        <v>296.1126500709257</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1392.738531588258</v>
+        <v>1392.738531588259</v>
       </c>
       <c r="C41" t="n">
-        <v>982.6139409015283</v>
+        <v>982.6139409015287</v>
       </c>
       <c r="D41" t="n">
-        <v>982.6139409015283</v>
+        <v>982.6139409015287</v>
       </c>
       <c r="E41" t="n">
-        <v>865.2628523008966</v>
+        <v>568.2737254184254</v>
       </c>
       <c r="F41" t="n">
-        <v>444.2324402545842</v>
+        <v>147.243313372113</v>
       </c>
       <c r="G41" t="n">
-        <v>37.74400473526219</v>
+        <v>147.243313372113</v>
       </c>
       <c r="H41" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I41" t="n">
         <v>37.74400473526202</v>
@@ -7414,7 +7414,7 @@
         <v>151.4749218512229</v>
       </c>
       <c r="K41" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L41" t="n">
         <v>594.3775951131297</v>
@@ -7432,7 +7432,7 @@
         <v>1687.808675484973</v>
       </c>
       <c r="Q41" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R41" t="n">
         <v>1887.20023676311</v>
@@ -7481,16 +7481,16 @@
         <v>143.5356927731907</v>
       </c>
       <c r="G42" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H42" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I42" t="n">
-        <v>38.28095199337145</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J42" t="n">
-        <v>98.39707907527368</v>
+        <v>98.39707907527369</v>
       </c>
       <c r="K42" t="n">
         <v>232.7978194276822</v>
@@ -7520,22 +7520,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T42" t="n">
-        <v>1272.401224503203</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="U42" t="n">
-        <v>1075.129257368246</v>
+        <v>1229.640628851122</v>
       </c>
       <c r="V42" t="n">
-        <v>861.4177303612801</v>
+        <v>1015.929101844156</v>
       </c>
       <c r="W42" t="n">
-        <v>861.4177303612801</v>
+        <v>802.6959335804846</v>
       </c>
       <c r="X42" t="n">
-        <v>861.4177303612801</v>
+        <v>802.6959335804846</v>
       </c>
       <c r="Y42" t="n">
-        <v>702.0157707251101</v>
+        <v>764.1836502656066</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>340.5121325317413</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="C43" t="n">
-        <v>340.5121325317413</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="D43" t="n">
-        <v>340.5121325317413</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="E43" t="n">
-        <v>340.5121325317413</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="F43" t="n">
         <v>203.9896768427527</v>
       </c>
       <c r="G43" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H43" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I43" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J43" t="n">
         <v>56.4452522174457</v>
@@ -7602,19 +7602,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U43" t="n">
-        <v>578.8559946720579</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="V43" t="n">
-        <v>578.8559946720579</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="W43" t="n">
-        <v>578.8559946720579</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="X43" t="n">
-        <v>340.5121325317413</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="Y43" t="n">
-        <v>340.5121325317413</v>
+        <v>296.1126500709257</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1557.696430229842</v>
+        <v>873.114632264678</v>
       </c>
       <c r="C44" t="n">
-        <v>1557.696430229842</v>
+        <v>873.114632264678</v>
       </c>
       <c r="D44" t="n">
-        <v>1153.232500322903</v>
+        <v>873.114632264678</v>
       </c>
       <c r="E44" t="n">
-        <v>1153.232500322903</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F44" t="n">
-        <v>732.2020882765901</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G44" t="n">
-        <v>325.7136527572681</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H44" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I44" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J44" t="n">
-        <v>151.4749218512231</v>
+        <v>151.474921851223</v>
       </c>
       <c r="K44" t="n">
         <v>342.4771847987903</v>
       </c>
       <c r="L44" t="n">
-        <v>594.3775951131299</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M44" t="n">
         <v>887.4914597655643</v>
@@ -7669,31 +7669,31 @@
         <v>1687.808675484973</v>
       </c>
       <c r="Q44" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R44" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S44" t="n">
-        <v>1814.577734083304</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T44" t="n">
-        <v>1814.577734083304</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="U44" t="n">
-        <v>1557.696430229842</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="V44" t="n">
-        <v>1557.696430229842</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="W44" t="n">
-        <v>1557.696430229842</v>
+        <v>1273.758030095725</v>
       </c>
       <c r="X44" t="n">
-        <v>1557.696430229842</v>
+        <v>873.114632264678</v>
       </c>
       <c r="Y44" t="n">
-        <v>1557.696430229842</v>
+        <v>873.114632264678</v>
       </c>
     </row>
     <row r="45">
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>683.0535714964635</v>
+        <v>86.42379028584509</v>
       </c>
       <c r="C45" t="n">
-        <v>549.0585002454092</v>
+        <v>86.42379028584509</v>
       </c>
       <c r="D45" t="n">
-        <v>432.1613424648016</v>
+        <v>86.42379028584509</v>
       </c>
       <c r="E45" t="n">
-        <v>311.6685264571296</v>
+        <v>86.42379028584509</v>
       </c>
       <c r="F45" t="n">
-        <v>202.7086466396342</v>
+        <v>86.42379028584509</v>
       </c>
       <c r="G45" t="n">
-        <v>96.91695860170567</v>
+        <v>86.42379028584509</v>
       </c>
       <c r="H45" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I45" t="n">
-        <v>38.28095199337145</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J45" t="n">
-        <v>98.39707907527368</v>
+        <v>98.39707907527369</v>
       </c>
       <c r="K45" t="n">
         <v>232.7978194276822</v>
@@ -7754,25 +7754,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S45" t="n">
-        <v>1426.912595986079</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="T45" t="n">
-        <v>1426.912595986079</v>
+        <v>1186.671426824303</v>
       </c>
       <c r="U45" t="n">
-        <v>1229.640628851122</v>
+        <v>989.3994596893464</v>
       </c>
       <c r="V45" t="n">
-        <v>1015.929101844156</v>
+        <v>775.6879326823802</v>
       </c>
       <c r="W45" t="n">
-        <v>1015.929101844156</v>
+        <v>562.4547644187089</v>
       </c>
       <c r="X45" t="n">
-        <v>839.6031199830486</v>
+        <v>386.1287825576017</v>
       </c>
       <c r="Y45" t="n">
-        <v>823.3566041320502</v>
+        <v>226.7268229214317</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>208.8373771735457</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="C46" t="n">
-        <v>37.74400473526219</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="D46" t="n">
-        <v>37.74400473526219</v>
+        <v>529.5316178638419</v>
       </c>
       <c r="E46" t="n">
-        <v>37.74400473526219</v>
+        <v>368.6208027321614</v>
       </c>
       <c r="F46" t="n">
-        <v>37.74400473526219</v>
+        <v>203.9896768427527</v>
       </c>
       <c r="G46" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H46" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I46" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J46" t="n">
         <v>56.4452522174457</v>
@@ -7851,7 +7851,7 @@
         <v>578.8559946720579</v>
       </c>
       <c r="Y46" t="n">
-        <v>396.5370835675901</v>
+        <v>578.8559946720579</v>
       </c>
     </row>
   </sheetData>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374.8521347175056</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>381.730617216486</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>378.9299801779333</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>398.1314345344646</v>
       </c>
       <c r="G2" t="n">
         <v>403.9316432678622</v>
       </c>
       <c r="H2" t="n">
-        <v>300.5346997991465</v>
+        <v>269.2678666488073</v>
       </c>
       <c r="I2" t="n">
-        <v>58.14072082918599</v>
+        <v>58.14072082918593</v>
       </c>
       <c r="J2" t="n">
-        <v>13.11771793070536</v>
+        <v>13.11771793070523</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.43112086737339</v>
+        <v>13.43112086737322</v>
       </c>
       <c r="R2" t="n">
-        <v>42.75293345816469</v>
+        <v>42.75293345816459</v>
       </c>
       <c r="S2" t="n">
-        <v>117.7637690690857</v>
+        <v>86.49693591874643</v>
       </c>
       <c r="T2" t="n">
-        <v>216.879204575341</v>
+        <v>185.6123714250018</v>
       </c>
       <c r="U2" t="n">
-        <v>223.1663050328874</v>
+        <v>254.4331381832263</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -22628,7 +22628,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>101.3882873882046</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
@@ -22640,16 +22640,16 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>74.27383841912771</v>
+        <v>105.5406715694666</v>
       </c>
       <c r="H3" t="n">
-        <v>35.10735041885304</v>
+        <v>66.37418356919194</v>
       </c>
       <c r="I3" t="n">
-        <v>27.23906865305363</v>
+        <v>27.2390686530536</v>
       </c>
       <c r="J3" t="n">
-        <v>15.51103305293355</v>
+        <v>15.51103305293346</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,22 +22670,22 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.244671795650547</v>
+        <v>8.24467179565044</v>
       </c>
       <c r="R3" t="n">
-        <v>35.43542678492479</v>
+        <v>35.43542678492474</v>
       </c>
       <c r="S3" t="n">
-        <v>99.86032094978739</v>
+        <v>68.59348779944818</v>
       </c>
       <c r="T3" t="n">
-        <v>128.6788060351588</v>
+        <v>156.2186326739773</v>
       </c>
       <c r="U3" t="n">
-        <v>164.0854998666839</v>
+        <v>164.0854998666836</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>184.0345850980777</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -22725,34 +22725,34 @@
         <v>145.2823504718546</v>
       </c>
       <c r="I4" t="n">
-        <v>105.6136367610332</v>
+        <v>105.6136367610331</v>
       </c>
       <c r="J4" t="n">
-        <v>28.93685975466222</v>
+        <v>28.93685975466217</v>
       </c>
       <c r="K4" t="n">
-        <v>15.28206119291187</v>
+        <v>15.28206119291179</v>
       </c>
       <c r="L4" t="n">
-        <v>7.321586928322603</v>
+        <v>7.321586928322496</v>
       </c>
       <c r="M4" t="n">
-        <v>6.386652893333256</v>
+        <v>6.386652893333142</v>
       </c>
       <c r="N4" t="n">
-        <v>3.020350146331261</v>
+        <v>3.020350146331154</v>
       </c>
       <c r="O4" t="n">
-        <v>11.09968222972734</v>
+        <v>11.09968222972724</v>
       </c>
       <c r="P4" t="n">
-        <v>17.29577477735975</v>
+        <v>17.29577477735967</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.71515254876333</v>
+        <v>34.71515254876327</v>
       </c>
       <c r="R4" t="n">
-        <v>70.1128508300083</v>
+        <v>70.11285083000827</v>
       </c>
       <c r="S4" t="n">
         <v>178.9826041839656</v>
@@ -22786,28 +22786,28 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>368.4940403177762</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>367.3634792376644</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>372.6675088661859</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>379.2908034637629</v>
       </c>
       <c r="G5" t="n">
-        <v>370.8401668442341</v>
+        <v>403.8959782144399</v>
       </c>
       <c r="H5" t="n">
-        <v>262.6401406086983</v>
+        <v>300.1694450707848</v>
       </c>
       <c r="I5" t="n">
-        <v>19.23643939503431</v>
+        <v>56.76574385712079</v>
       </c>
       <c r="J5" t="n">
-        <v>10.09069110280002</v>
+        <v>10.09069110280006</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.579696329610385</v>
+        <v>9.579696329610442</v>
       </c>
       <c r="R5" t="n">
-        <v>2.983284084036413</v>
+        <v>40.51258854612291</v>
       </c>
       <c r="S5" t="n">
         <v>116.9510516642238</v>
@@ -22865,28 +22865,28 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>96.32064346342747</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028015</v>
+        <v>78.19888174071509</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>70.34097655723407</v>
       </c>
       <c r="G6" t="n">
-        <v>67.99228462148537</v>
+        <v>105.5215890835718</v>
       </c>
       <c r="H6" t="n">
-        <v>28.66058246701624</v>
+        <v>66.18988692910271</v>
       </c>
       <c r="I6" t="n">
-        <v>26.58206201150024</v>
+        <v>26.58206201150026</v>
       </c>
       <c r="J6" t="n">
-        <v>13.70815661144291</v>
+        <v>13.70815661144294</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,13 +22907,13 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.808809210202178</v>
+        <v>5.808809210202206</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>63.17139506868642</v>
+        <v>99.50587214380288</v>
       </c>
       <c r="T6" t="n">
         <v>156.1417168646031</v>
@@ -22965,28 +22965,28 @@
         <v>105.1325298071908</v>
       </c>
       <c r="J7" t="n">
-        <v>27.80579301341917</v>
+        <v>27.80579301341919</v>
       </c>
       <c r="K7" t="n">
-        <v>13.42337108707594</v>
+        <v>13.42337108707596</v>
       </c>
       <c r="L7" t="n">
-        <v>4.943103517458681</v>
+        <v>4.943103517458709</v>
       </c>
       <c r="M7" t="n">
-        <v>3.878875624559463</v>
+        <v>3.878875624559498</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5722022158511066</v>
+        <v>0.5722022158511422</v>
       </c>
       <c r="O7" t="n">
-        <v>8.838421371704094</v>
+        <v>8.838421371704122</v>
       </c>
       <c r="P7" t="n">
-        <v>15.36087546843633</v>
+        <v>15.36087546843636</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.37552856090301</v>
+        <v>33.37552856090304</v>
       </c>
       <c r="R7" t="n">
         <v>69.39351739781233</v>
@@ -23023,7 +23023,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>360.6177174292685</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -23032,7 +23032,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>376.3619447552045</v>
       </c>
       <c r="G8" t="n">
         <v>403.865817831984</v>
@@ -23041,7 +23041,7 @@
         <v>299.8605650539583</v>
       </c>
       <c r="I8" t="n">
-        <v>15.14482254184468</v>
+        <v>55.60298571248951</v>
       </c>
       <c r="J8" t="n">
         <v>7.530866342333198</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>70.85814459841581</v>
+        <v>116.2637719490099</v>
       </c>
       <c r="T8" t="n">
-        <v>171.1854263791898</v>
+        <v>216.5910537297839</v>
       </c>
       <c r="U8" t="n">
-        <v>254.427872148356</v>
+        <v>209.0222447977619</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.9000023092308</v>
+        <v>93.49437495863668</v>
       </c>
       <c r="C9" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>79.48381593660596</v>
       </c>
       <c r="E9" t="n">
-        <v>119.2878878475953</v>
+        <v>73.88226049700123</v>
       </c>
       <c r="F9" t="n">
         <v>107.8702810193205</v>
@@ -23147,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>33.24871511996928</v>
       </c>
       <c r="S9" t="n">
-        <v>53.80050287433556</v>
+        <v>99.20613022492962</v>
       </c>
       <c r="T9" t="n">
-        <v>110.671045163727</v>
+        <v>156.076672514321</v>
       </c>
       <c r="U9" t="n">
         <v>149.9443885800361</v>
       </c>
       <c r="V9" t="n">
-        <v>208.5787565906703</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
         <v>211.1008365810345</v>
@@ -23211,7 +23211,7 @@
         <v>2.931723680530631</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2898797198164544</v>
+        <v>1.7581576027819</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -23229,7 +23229,7 @@
         <v>68.78520844138295</v>
       </c>
       <c r="S10" t="n">
-        <v>178.468028676688</v>
+        <v>176.9997507937226</v>
       </c>
       <c r="T10" t="n">
         <v>235.6675363340381</v>
@@ -23263,22 +23263,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>303.6317081855736</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>197.2635504517532</v>
       </c>
       <c r="G11" t="n">
-        <v>183.6944827100391</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H11" t="n">
-        <v>74.00791599383143</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I11" t="n">
-        <v>31.90177044380178</v>
+        <v>31.90177044380177</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>157.5911075142316</v>
+        <v>254.3786899365281</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>126.782621642788</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>12.82588865527179</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>187.8967967501105</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>48.49359401022406</v>
       </c>
     </row>
     <row r="13">
@@ -23433,13 +23433,13 @@
         <v>164.9543984734636</v>
       </c>
       <c r="H13" t="n">
-        <v>64.28279038417104</v>
+        <v>142.5679993783892</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.43258009724633</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>7.352495282391878</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>9.150849970123481</v>
       </c>
       <c r="R13" t="n">
         <v>56.38567239618433</v>
@@ -23472,7 +23472,7 @@
         <v>234.4892545020035</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9361575053235</v>
+        <v>88.71502316134357</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>212.7335520446605</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -23503,19 +23503,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>190.6402558541761</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>197.2635504517531</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>241.7673948047532</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H14" t="n">
-        <v>74.00791599383143</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>31.90177044380174</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>213.8998645763261</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3786899365281</v>
+        <v>34.82213246243165</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>126.7826216427876</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23563,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>177.3707488472943</v>
       </c>
     </row>
     <row r="15">
@@ -23585,16 +23585,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>62.85721528991137</v>
       </c>
       <c r="I15" t="n">
-        <v>14.70128436951479</v>
+        <v>14.70128436951476</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>12.82588865527176</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>93.09630611656611</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>187.896796750111</v>
+        <v>62.68133465150922</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>157.8079400398083</v>
@@ -23658,7 +23658,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23670,13 +23670,13 @@
         <v>164.9543984734636</v>
       </c>
       <c r="H16" t="n">
-        <v>64.28279038417112</v>
+        <v>109.2465632647279</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.43258009724632</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>7.35249528239185</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>9.150849970123446</v>
       </c>
       <c r="R16" t="n">
-        <v>56.38567239618433</v>
+        <v>56.3856723961843</v>
       </c>
       <c r="S16" t="n">
         <v>173.6621429915595</v>
@@ -23737,22 +23737,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>309.2884010833429</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>190.6402558541757</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>197.2635504517527</v>
       </c>
       <c r="G17" t="n">
-        <v>403.2510401841353</v>
+        <v>183.6944827100387</v>
       </c>
       <c r="H17" t="n">
         <v>293.5644734679276</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>31.90177044380174</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U17" t="n">
-        <v>34.82213246243199</v>
+        <v>254.3786899365281</v>
       </c>
       <c r="V17" t="n">
-        <v>126.782621642788</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>315.0368858776883</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>43.29987613751145</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>105.1765168157536</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>14.70128436951476</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>12.8258886552718</v>
+        <v>12.82588865527176</v>
       </c>
       <c r="S18" t="n">
-        <v>93.09630611656613</v>
+        <v>93.09630611656611</v>
       </c>
       <c r="T18" t="n">
         <v>154.7508334693185</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -23876,7 +23876,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>60.51764949544872</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23910,10 +23910,10 @@
         <v>142.5679993783892</v>
       </c>
       <c r="I19" t="n">
-        <v>96.43258009724633</v>
+        <v>96.43258009724632</v>
       </c>
       <c r="J19" t="n">
-        <v>7.352495282391885</v>
+        <v>7.35249528239185</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.150849970123488</v>
+        <v>9.150849970123446</v>
       </c>
       <c r="R19" t="n">
-        <v>56.38567239618433</v>
+        <v>56.3856723961843</v>
       </c>
       <c r="S19" t="n">
         <v>173.6621429915595</v>
       </c>
       <c r="T19" t="n">
-        <v>43.26812015802359</v>
+        <v>234.4892545020035</v>
       </c>
       <c r="U19" t="n">
         <v>279.9361575053235</v>
@@ -23952,7 +23952,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>85.05783350223402</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>186.5624103937484</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>186.4667873057664</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>190.6402558541757</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>197.2635504517527</v>
       </c>
       <c r="G20" t="n">
         <v>403.2510401841353</v>
@@ -23989,7 +23989,7 @@
         <v>293.5644734679276</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>31.90177044380174</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>213.8998645763261</v>
+        <v>122.768975051799</v>
       </c>
       <c r="U20" t="n">
         <v>254.3786899365281</v>
@@ -24031,13 +24031,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>160.3661403820865</v>
       </c>
       <c r="X20" t="n">
-        <v>337.4078447720123</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>177.3707488472947</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24053,7 +24053,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2.374412713637014</v>
       </c>
       <c r="E21" t="n">
         <v>119.2878878475953</v>
@@ -24062,13 +24062,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>63.68475111016131</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>14.70128436951476</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>12.82588865527176</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>93.09630611656611</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>174.5627220424961</v>
@@ -24147,10 +24147,10 @@
         <v>142.5679993783892</v>
       </c>
       <c r="I22" t="n">
-        <v>96.43258009724633</v>
+        <v>96.43258009724632</v>
       </c>
       <c r="J22" t="n">
-        <v>7.352495282391899</v>
+        <v>7.35249528239185</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.150849970123502</v>
+        <v>9.150849970123446</v>
       </c>
       <c r="R22" t="n">
-        <v>56.38567239618434</v>
+        <v>56.3856723961843</v>
       </c>
       <c r="S22" t="n">
         <v>173.6621429915595</v>
@@ -24183,7 +24183,7 @@
         <v>234.4892545020035</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9361575053235</v>
+        <v>88.7150231613432</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24192,7 +24192,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>44.73928917493373</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>391.6895910348019</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24214,16 +24214,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>138.5751145969892</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>138.9000023092308</v>
+        <v>23.50487061071809</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24296,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24338,16 +24338,16 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T24" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2.35031188222704</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>68.09996348447244</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>139.2678442953623</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>15.36192872756655</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -24451,7 +24451,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>374.1717122203639</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U26" t="n">
         <v>254.3124908149276</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>124.7406796837486</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>114.8390972863178</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H27" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>90.02977887244322</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24606,7 +24606,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24651,19 +24651,19 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S28" t="n">
-        <v>144.3117656223143</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>169.624683648979</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>258.3910296387139</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T29" t="n">
-        <v>61.80028893930816</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>115.7281862028015</v>
@@ -24770,13 +24770,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
-        <v>84.09228650034089</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>104.323404298905</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>71.4971780619129</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -24888,10 +24888,10 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S31" t="n">
-        <v>144.3117656223143</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24922,7 +24922,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>210.2775313912475</v>
       </c>
       <c r="U32" t="n">
-        <v>53.12367408206137</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -24982,7 +24982,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>199.2304738750034</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -24995,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>39.30645972814526</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T33" t="n">
-        <v>118.8775209889507</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>71.78307113462337</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>139.2678442953623</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>15.36192872756644</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>204.9781979455274</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>204.9214380984137</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H35" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -25250,7 +25250,7 @@
         <v>104.7337711575492</v>
       </c>
       <c r="H36" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>84.8724997021109</v>
+        <v>0.5927923906116348</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>131.3751516300384</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="37">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>141.7907996174552</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>164.5832153864156</v>
@@ -25368,10 +25368,10 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>15.36192872756644</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -25396,7 +25396,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>285.0899515417858</v>
@@ -25450,10 +25450,10 @@
         <v>254.3124908149276</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>234.335069950668</v>
       </c>
       <c r="W38" t="n">
-        <v>265.9143281337088</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>14.94700840052987</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25478,13 +25478,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>83.14266501954076</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H39" t="n">
         <v>58.58122432777904</v>
@@ -25532,10 +25532,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>71.78307113462337</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>139.2678442953623</v>
@@ -25605,13 +25605,13 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>11.72498541865991</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -25636,16 +25636,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>294.0192356136469</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H41" t="n">
-        <v>285.0899515417858</v>
+        <v>176.6856359913035</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>61.54620074509154</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>119.6807795580791</v>
       </c>
     </row>
     <row r="43">
@@ -25797,7 +25797,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>27.82758349841589</v>
+        <v>71.78307113462337</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25851,7 +25851,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25870,19 +25870,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50184260225105</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>66.29056490197831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25946,22 +25946,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>10.38823663270199</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26006,13 +26006,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>141.7238893473198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>109.0685651901852</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>139.2678442953623</v>
@@ -26091,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.9926196316998</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>131896.2777182756</v>
+        <v>131896.2777182758</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>138546.9172810796</v>
+        <v>138546.9172810795</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>261481.4486414937</v>
+        <v>261481.448641494</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>261481.4486414937</v>
+        <v>261481.448641494</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>261481.4486414937</v>
+        <v>261481.4486414939</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>415762.463038431</v>
+        <v>415762.4630384312</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>415762.4630384311</v>
+        <v>415762.4630384312</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415762.4630384313</v>
+        <v>415762.4630384311</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>415762.4630384311</v>
+        <v>415762.4630384312</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>415762.4630384312</v>
+        <v>415762.4630384313</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52758.51108731023</v>
+        <v>52758.51108731038</v>
       </c>
       <c r="C2" t="n">
-        <v>55418.76691243185</v>
+        <v>55418.76691243181</v>
       </c>
       <c r="D2" t="n">
-        <v>57981.0278687259</v>
+        <v>57981.02786872594</v>
       </c>
       <c r="E2" t="n">
+        <v>104592.5794565975</v>
+      </c>
+      <c r="F2" t="n">
         <v>104592.5794565976</v>
-      </c>
-      <c r="F2" t="n">
-        <v>104592.5794565975</v>
       </c>
       <c r="G2" t="n">
         <v>104592.5794565976</v>
       </c>
       <c r="H2" t="n">
-        <v>104592.5794565975</v>
+        <v>104592.5794565976</v>
       </c>
       <c r="I2" t="n">
         <v>166304.9852153726</v>
       </c>
       <c r="J2" t="n">
-        <v>166304.9852153725</v>
+        <v>166304.9852153726</v>
       </c>
       <c r="K2" t="n">
         <v>166304.9852153726</v>
@@ -26346,16 +26346,16 @@
         <v>166304.9852153726</v>
       </c>
       <c r="M2" t="n">
-        <v>166304.9852153725</v>
+        <v>166304.9852153726</v>
       </c>
       <c r="N2" t="n">
-        <v>166304.9852153725</v>
+        <v>166304.9852153726</v>
       </c>
       <c r="O2" t="n">
         <v>166304.9852153726</v>
       </c>
       <c r="P2" t="n">
-        <v>166304.9852153725</v>
+        <v>166304.9852153726</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180510.4488779363</v>
+        <v>180510.4488779367</v>
       </c>
       <c r="C3" t="n">
-        <v>10101.7923106461</v>
+        <v>10101.79231064551</v>
       </c>
       <c r="D3" t="n">
-        <v>8871.778406779136</v>
+        <v>8871.77840677926</v>
       </c>
       <c r="E3" t="n">
         <v>174858.7953097978</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>222021.1128848246</v>
+        <v>222021.1128848242</v>
       </c>
       <c r="J3" t="n">
-        <v>8180.779292787244</v>
+        <v>8180.779292787301</v>
       </c>
       <c r="K3" t="n">
-        <v>1611.759716561894</v>
+        <v>1611.759716561795</v>
       </c>
       <c r="L3" t="n">
-        <v>1993.426436175281</v>
+        <v>1993.42643617531</v>
       </c>
       <c r="M3" t="n">
-        <v>43399.10839049722</v>
+        <v>43399.10839049715</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.57785121589243</v>
+        <v>21.57785121589268</v>
       </c>
       <c r="C4" t="n">
-        <v>27.19396146355793</v>
+        <v>27.19396146355786</v>
       </c>
       <c r="D4" t="n">
         <v>32.95512399923139</v>
       </c>
       <c r="E4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="F4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250003</v>
       </c>
       <c r="G4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250003</v>
       </c>
       <c r="H4" t="n">
-        <v>155.6503797249999</v>
+        <v>155.6503797250003</v>
       </c>
       <c r="I4" t="n">
         <v>331.9759880256581</v>
@@ -26459,7 +26459,7 @@
         <v>331.9759880256581</v>
       </c>
       <c r="P4" t="n">
-        <v>331.9759880256581</v>
+        <v>331.9759880256582</v>
       </c>
     </row>
     <row r="5">
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39375.29454046336</v>
+        <v>39375.29454046339</v>
       </c>
       <c r="C5" t="n">
-        <v>39949.45546466368</v>
+        <v>39949.45546466367</v>
       </c>
       <c r="D5" t="n">
-        <v>40591.8881102477</v>
+        <v>40591.88811024769</v>
       </c>
       <c r="E5" t="n">
         <v>20886.45015162826</v>
       </c>
       <c r="F5" t="n">
-        <v>20886.45015162826</v>
+        <v>20886.45015162829</v>
       </c>
       <c r="G5" t="n">
-        <v>20886.45015162826</v>
+        <v>20886.45015162829</v>
       </c>
       <c r="H5" t="n">
-        <v>20886.45015162825</v>
+        <v>20886.45015162829</v>
       </c>
       <c r="I5" t="n">
-        <v>40710.12113924291</v>
+        <v>40710.1211392429</v>
       </c>
       <c r="J5" t="n">
         <v>40710.1211392429</v>
@@ -26499,7 +26499,7 @@
         <v>40710.1211392429</v>
       </c>
       <c r="L5" t="n">
-        <v>40710.1211392429</v>
+        <v>40710.12113924291</v>
       </c>
       <c r="M5" t="n">
         <v>40710.1211392429</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167148.8101823053</v>
+        <v>-168513.8415571936</v>
       </c>
       <c r="C6" t="n">
-        <v>5340.325175658523</v>
+        <v>3988.595079896666</v>
       </c>
       <c r="D6" t="n">
-        <v>8484.406227699837</v>
+        <v>7145.487436718825</v>
       </c>
       <c r="E6" t="n">
-        <v>-91308.31638455349</v>
+        <v>-92414.17741759516</v>
       </c>
       <c r="F6" t="n">
-        <v>83550.47892524427</v>
+        <v>82444.61789220254</v>
       </c>
       <c r="G6" t="n">
-        <v>83550.4789252443</v>
+        <v>82444.61789220275</v>
       </c>
       <c r="H6" t="n">
-        <v>83550.47892524427</v>
+        <v>82444.61789220275</v>
       </c>
       <c r="I6" t="n">
-        <v>-96758.22479672061</v>
+        <v>-97555.5238009679</v>
       </c>
       <c r="J6" t="n">
-        <v>117082.1087953167</v>
+        <v>116284.809791069</v>
       </c>
       <c r="K6" t="n">
-        <v>123651.1283715421</v>
+        <v>122853.8293672945</v>
       </c>
       <c r="L6" t="n">
-        <v>123269.4616519288</v>
+        <v>122472.162647681</v>
       </c>
       <c r="M6" t="n">
-        <v>81863.77969760672</v>
+        <v>81066.48069335913</v>
       </c>
       <c r="N6" t="n">
-        <v>125262.8880881039</v>
+        <v>124465.5890838563</v>
       </c>
       <c r="O6" t="n">
-        <v>125262.888088104</v>
+        <v>124465.5890838563</v>
       </c>
       <c r="P6" t="n">
-        <v>125262.888088104</v>
+        <v>124465.5890838563</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.4528020606771</v>
+        <v>176.4528020606775</v>
       </c>
       <c r="C3" t="n">
-        <v>185.3244840994871</v>
+        <v>185.324484099487</v>
       </c>
       <c r="D3" t="n">
         <v>192.8268792353934</v>
       </c>
       <c r="E3" t="n">
-        <v>345.7528191377621</v>
+        <v>345.7528191377622</v>
       </c>
       <c r="F3" t="n">
-        <v>345.7528191377621</v>
+        <v>345.7528191377624</v>
       </c>
       <c r="G3" t="n">
-        <v>345.7528191377621</v>
+        <v>345.7528191377624</v>
       </c>
       <c r="H3" t="n">
-        <v>345.752819137762</v>
+        <v>345.7528191377624</v>
       </c>
       <c r="I3" t="n">
         <v>551.5907128643867</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.26683315033891</v>
+        <v>31.26683315033919</v>
       </c>
       <c r="C4" t="n">
-        <v>37.52930446208646</v>
+        <v>37.52930446208639</v>
       </c>
       <c r="D4" t="n">
         <v>45.40562735059407</v>
       </c>
       <c r="E4" t="n">
-        <v>219.5565574740962</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="F4" t="n">
-        <v>219.5565574740962</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="G4" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="H4" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="I4" t="n">
-        <v>471.8000591907776</v>
+        <v>471.8000591907775</v>
       </c>
       <c r="J4" t="n">
         <v>471.8000591907774</v>
@@ -26819,19 +26819,19 @@
         <v>471.8000591907775</v>
       </c>
       <c r="L4" t="n">
+        <v>471.8000591907776</v>
+      </c>
+      <c r="M4" t="n">
+        <v>471.8000591907774</v>
+      </c>
+      <c r="N4" t="n">
         <v>471.8000591907775</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>471.8000591907775</v>
       </c>
-      <c r="N4" t="n">
-        <v>471.8000591907774</v>
-      </c>
-      <c r="O4" t="n">
-        <v>471.8000591907774</v>
-      </c>
       <c r="P4" t="n">
-        <v>471.8000591907774</v>
+        <v>471.8000591907775</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.4528020606771</v>
+        <v>176.4528020606775</v>
       </c>
       <c r="C3" t="n">
-        <v>8.871682038810036</v>
+        <v>8.871682038809524</v>
       </c>
       <c r="D3" t="n">
-        <v>7.502395135906255</v>
+        <v>7.502395135906369</v>
       </c>
       <c r="E3" t="n">
         <v>152.9259399023688</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>205.8378937266247</v>
+        <v>205.8378937266243</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.26683315033891</v>
+        <v>31.26683315033919</v>
       </c>
       <c r="C4" t="n">
-        <v>6.262471311747554</v>
+        <v>6.262471311747191</v>
       </c>
       <c r="D4" t="n">
-        <v>7.876322888507602</v>
+        <v>7.876322888507687</v>
       </c>
       <c r="E4" t="n">
-        <v>174.1509301235021</v>
+        <v>174.150930123502</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>252.2435017166814</v>
+        <v>252.243501716681</v>
       </c>
       <c r="J4" t="n">
-        <v>31.2668331503388</v>
+        <v>31.26683315033901</v>
       </c>
       <c r="K4" t="n">
-        <v>6.262471311747747</v>
+        <v>6.262471311747362</v>
       </c>
       <c r="L4" t="n">
-        <v>7.876322888507616</v>
+        <v>7.87632288850773</v>
       </c>
       <c r="M4" t="n">
-        <v>174.1509301235021</v>
+        <v>174.1509301235018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>31.26683315033891</v>
+        <v>31.26683315033919</v>
       </c>
       <c r="K4" t="n">
-        <v>6.262471311747554</v>
+        <v>6.262471311747191</v>
       </c>
       <c r="L4" t="n">
-        <v>7.876322888507602</v>
+        <v>7.876322888507687</v>
       </c>
       <c r="M4" t="n">
-        <v>174.1509301235021</v>
+        <v>174.150930123502</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7093579982338771</v>
+        <v>0.7093579982338787</v>
       </c>
       <c r="H2" t="n">
-        <v>7.264712599412696</v>
+        <v>7.264712599412713</v>
       </c>
       <c r="I2" t="n">
-        <v>27.34752422691157</v>
+        <v>27.34752422691164</v>
       </c>
       <c r="J2" t="n">
-        <v>60.20587340260258</v>
+        <v>60.20587340260272</v>
       </c>
       <c r="K2" t="n">
-        <v>90.23299746784262</v>
+        <v>90.23299746784282</v>
       </c>
       <c r="L2" t="n">
-        <v>111.9420123062927</v>
+        <v>111.9420123062929</v>
       </c>
       <c r="M2" t="n">
-        <v>124.5570576073844</v>
+        <v>124.5570576073846</v>
       </c>
       <c r="N2" t="n">
-        <v>124.1791239069582</v>
+        <v>124.1791239069585</v>
       </c>
       <c r="O2" t="n">
-        <v>119.5188424249283</v>
+        <v>119.5188424249285</v>
       </c>
       <c r="P2" t="n">
-        <v>102.0065668435294</v>
+        <v>102.0065668435296</v>
       </c>
       <c r="Q2" t="n">
-        <v>76.60268353177865</v>
+        <v>76.60268353177882</v>
       </c>
       <c r="R2" t="n">
-        <v>44.55920935655882</v>
+        <v>44.55920935655892</v>
       </c>
       <c r="S2" t="n">
-        <v>16.16449538475449</v>
+        <v>16.16449538475453</v>
       </c>
       <c r="T2" t="n">
-        <v>3.105214637268799</v>
+        <v>3.105214637268806</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05674863985871016</v>
+        <v>0.05674863985871029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3795399893380602</v>
+        <v>0.379539989338061</v>
       </c>
       <c r="H3" t="n">
-        <v>3.66555726544916</v>
+        <v>3.665557265449169</v>
       </c>
       <c r="I3" t="n">
-        <v>13.06749524694637</v>
+        <v>13.0674952469464</v>
       </c>
       <c r="J3" t="n">
-        <v>35.85820574706646</v>
+        <v>35.85820574706655</v>
       </c>
       <c r="K3" t="n">
-        <v>61.28738503271649</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>62.44059185316888</v>
+        <v>67.90219410127008</v>
       </c>
       <c r="M3" t="n">
-        <v>88.83111688875633</v>
+        <v>88.83111688875661</v>
       </c>
       <c r="N3" t="n">
-        <v>84.4602265440889</v>
+        <v>84.46022654408918</v>
       </c>
       <c r="O3" t="n">
-        <v>89.01831215033891</v>
+        <v>89.01831215033918</v>
       </c>
       <c r="P3" t="n">
-        <v>72.47549147280905</v>
+        <v>72.47549147280921</v>
       </c>
       <c r="Q3" t="n">
-        <v>48.44794670918817</v>
+        <v>48.44794670918828</v>
       </c>
       <c r="R3" t="n">
-        <v>23.56477232048062</v>
+        <v>23.56477232048067</v>
       </c>
       <c r="S3" t="n">
-        <v>7.049788837046858</v>
+        <v>7.049788837046874</v>
       </c>
       <c r="T3" t="n">
-        <v>1.529812500884549</v>
+        <v>1.529812500884552</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02496973614066186</v>
+        <v>0.02496973614066192</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3181935774864668</v>
+        <v>0.3181935774864675</v>
       </c>
       <c r="H4" t="n">
-        <v>2.829030170743316</v>
+        <v>2.829030170743323</v>
       </c>
       <c r="I4" t="n">
-        <v>9.568948675683933</v>
+        <v>9.568948675683954</v>
       </c>
       <c r="J4" t="n">
-        <v>22.4962859282932</v>
+        <v>22.49628592829325</v>
       </c>
       <c r="K4" t="n">
-        <v>36.96830836615496</v>
+        <v>36.96830836615504</v>
       </c>
       <c r="L4" t="n">
-        <v>47.3067069655789</v>
+        <v>47.30670696557901</v>
       </c>
       <c r="M4" t="n">
-        <v>49.87828960544679</v>
+        <v>49.8782896054469</v>
       </c>
       <c r="N4" t="n">
-        <v>48.69229536208818</v>
+        <v>48.69229536208829</v>
       </c>
       <c r="O4" t="n">
-        <v>44.97521584326898</v>
+        <v>44.97521584326908</v>
       </c>
       <c r="P4" t="n">
-        <v>38.48406686254503</v>
+        <v>38.48406686254511</v>
       </c>
       <c r="Q4" t="n">
-        <v>26.64437311116224</v>
+        <v>26.6443731111623</v>
       </c>
       <c r="R4" t="n">
-        <v>14.30714031134604</v>
+        <v>14.30714031134607</v>
       </c>
       <c r="S4" t="n">
-        <v>5.545246254923242</v>
+        <v>5.545246254923255</v>
       </c>
       <c r="T4" t="n">
-        <v>1.359554376533085</v>
+        <v>1.359554376533088</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01735601331744367</v>
+        <v>0.0173560133174437</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7450230516562291</v>
+        <v>0.7450230516562285</v>
       </c>
       <c r="H5" t="n">
-        <v>7.629967327774358</v>
+        <v>7.629967327774352</v>
       </c>
       <c r="I5" t="n">
-        <v>28.7225011989768</v>
+        <v>28.72250119897678</v>
       </c>
       <c r="J5" t="n">
-        <v>63.23290023050792</v>
+        <v>63.23290023050789</v>
       </c>
       <c r="K5" t="n">
-        <v>94.76972600711612</v>
+        <v>94.76972600711606</v>
       </c>
       <c r="L5" t="n">
-        <v>117.5702252242405</v>
+        <v>117.5702252242404</v>
       </c>
       <c r="M5" t="n">
-        <v>130.8195289191319</v>
+        <v>130.8195289191318</v>
       </c>
       <c r="N5" t="n">
-        <v>130.4415952187058</v>
+        <v>130.4415952187057</v>
       </c>
       <c r="O5" t="n">
         <v>125.5280026947435</v>
       </c>
       <c r="P5" t="n">
-        <v>107.1352461069804</v>
+        <v>107.1352461069803</v>
       </c>
       <c r="Q5" t="n">
-        <v>80.45410806954166</v>
+        <v>80.4541080695416</v>
       </c>
       <c r="R5" t="n">
-        <v>46.79955426860064</v>
+        <v>46.79955426860061</v>
       </c>
       <c r="S5" t="n">
-        <v>16.97721278961633</v>
+        <v>16.97721278961632</v>
       </c>
       <c r="T5" t="n">
-        <v>3.261338408625144</v>
+        <v>3.261338408625142</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05960184413249831</v>
+        <v>0.05960184413249827</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3986224752328591</v>
+        <v>0.3986224752328588</v>
       </c>
       <c r="H6" t="n">
-        <v>3.849853905538403</v>
+        <v>3.8498539055384</v>
       </c>
       <c r="I6" t="n">
-        <v>13.72450188849976</v>
+        <v>13.72450188849975</v>
       </c>
       <c r="J6" t="n">
-        <v>37.6610821885571</v>
+        <v>37.66108218855707</v>
       </c>
       <c r="K6" t="n">
-        <v>64.36878802915865</v>
+        <v>64.36878802915861</v>
       </c>
       <c r="L6" t="n">
-        <v>86.55177910702935</v>
+        <v>86.55177910702929</v>
       </c>
       <c r="M6" t="n">
-        <v>70.70487847115847</v>
+        <v>95.0935882005038</v>
       </c>
       <c r="N6" t="n">
-        <v>90.72269785583646</v>
+        <v>90.72269785583637</v>
       </c>
       <c r="O6" t="n">
-        <v>94.84242725419695</v>
+        <v>70.45371752485151</v>
       </c>
       <c r="P6" t="n">
-        <v>76.11940932757992</v>
+        <v>76.11940932757986</v>
       </c>
       <c r="Q6" t="n">
-        <v>50.88380929463654</v>
+        <v>50.88380929463651</v>
       </c>
       <c r="R6" t="n">
-        <v>24.74956034822963</v>
+        <v>24.74956034822961</v>
       </c>
       <c r="S6" t="n">
-        <v>7.404237643031391</v>
+        <v>7.404237643031386</v>
       </c>
       <c r="T6" t="n">
-        <v>1.60672831025876</v>
+        <v>1.606728310258759</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02622516284426706</v>
+        <v>0.02622516284426704</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3341916926384194</v>
+        <v>0.3341916926384191</v>
       </c>
       <c r="H7" t="n">
-        <v>2.971267958185221</v>
+        <v>2.97126795818522</v>
       </c>
       <c r="I7" t="n">
-        <v>10.05005562952629</v>
+        <v>10.05005562952628</v>
       </c>
       <c r="J7" t="n">
-        <v>23.62735266953625</v>
+        <v>23.62735266953623</v>
       </c>
       <c r="K7" t="n">
-        <v>38.82699847199089</v>
+        <v>38.82699847199087</v>
       </c>
       <c r="L7" t="n">
-        <v>49.68519037644283</v>
+        <v>49.6851903764428</v>
       </c>
       <c r="M7" t="n">
-        <v>52.38606687422058</v>
+        <v>52.38606687422055</v>
       </c>
       <c r="N7" t="n">
-        <v>51.14044329256834</v>
+        <v>51.1404432925683</v>
       </c>
       <c r="O7" t="n">
-        <v>47.23647670129223</v>
+        <v>47.2364767012922</v>
       </c>
       <c r="P7" t="n">
-        <v>40.41896617146845</v>
+        <v>40.41896617146842</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.98399709902255</v>
+        <v>27.98399709902253</v>
       </c>
       <c r="R7" t="n">
         <v>15.02647374354201</v>
       </c>
       <c r="S7" t="n">
-        <v>5.824049770798633</v>
+        <v>5.82404977079863</v>
       </c>
       <c r="T7" t="n">
-        <v>1.427909959455064</v>
+        <v>1.427909959455063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01822863778027744</v>
+        <v>0.01822863778027743</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31612,7 +31612,7 @@
         <v>90.05560996743537</v>
       </c>
       <c r="M9" t="n">
-        <v>80.98501317707863</v>
+        <v>102.9699110890115</v>
       </c>
       <c r="N9" t="n">
         <v>98.59902074434406</v>
@@ -31621,7 +31621,7 @@
         <v>98.68188413096588</v>
       </c>
       <c r="P9" t="n">
-        <v>79.2009119636845</v>
+        <v>57.21601405175164</v>
       </c>
       <c r="Q9" t="n">
         <v>52.94371220063103</v>
@@ -31758,13 +31758,13 @@
         <v>14.23493893063158</v>
       </c>
       <c r="I11" t="n">
-        <v>53.58647461229579</v>
+        <v>53.5864746122958</v>
       </c>
       <c r="J11" t="n">
-        <v>117.9712093800749</v>
+        <v>117.971209380075</v>
       </c>
       <c r="K11" t="n">
-        <v>176.8082619794778</v>
+        <v>176.8082619794779</v>
       </c>
       <c r="L11" t="n">
         <v>219.3462834415373</v>
@@ -31776,7 +31776,7 @@
         <v>248.0142307569799</v>
       </c>
       <c r="O11" t="n">
-        <v>234.1928052482316</v>
+        <v>234.1928052482317</v>
       </c>
       <c r="P11" t="n">
         <v>199.8781410373231</v>
@@ -31785,13 +31785,13 @@
         <v>150.1001597896</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472343</v>
+        <v>87.31214281472344</v>
       </c>
       <c r="S11" t="n">
-        <v>31.67373815518294</v>
+        <v>31.67373815518295</v>
       </c>
       <c r="T11" t="n">
-        <v>6.084554636283631</v>
+        <v>6.084554636283633</v>
       </c>
       <c r="U11" t="n">
         <v>0.1111968865568681</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7436947430510356</v>
+        <v>0.7436947430510357</v>
       </c>
       <c r="H12" t="n">
-        <v>7.182525544729739</v>
+        <v>7.18252554472974</v>
       </c>
       <c r="I12" t="n">
         <v>25.60527953048522</v>
@@ -31846,10 +31846,10 @@
         <v>120.0903919074999</v>
       </c>
       <c r="L12" t="n">
-        <v>161.4763519944803</v>
+        <v>161.4763519944804</v>
       </c>
       <c r="M12" t="n">
-        <v>188.4352864300803</v>
+        <v>188.4352864300804</v>
       </c>
       <c r="N12" t="n">
         <v>193.4226077551902</v>
@@ -31861,19 +31861,19 @@
         <v>142.0130777322631</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.931981586655</v>
+        <v>94.93198158665501</v>
       </c>
       <c r="R12" t="n">
-        <v>46.17431045013361</v>
+        <v>46.17431045013362</v>
       </c>
       <c r="S12" t="n">
         <v>13.81380367026813</v>
       </c>
       <c r="T12" t="n">
-        <v>2.997611705543427</v>
+        <v>2.997611705543428</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04892728572704183</v>
+        <v>0.04892728572704184</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,40 +31910,40 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6234886902484235</v>
+        <v>0.6234886902484236</v>
       </c>
       <c r="H13" t="n">
-        <v>5.543381264208714</v>
+        <v>5.543381264208715</v>
       </c>
       <c r="I13" t="n">
-        <v>18.75000533947077</v>
+        <v>18.75000533947078</v>
       </c>
       <c r="J13" t="n">
-        <v>44.08065040056353</v>
+        <v>44.08065040056354</v>
       </c>
       <c r="K13" t="n">
         <v>72.43804964886228</v>
       </c>
       <c r="L13" t="n">
-        <v>92.6957640029338</v>
+        <v>92.69576400293381</v>
       </c>
       <c r="M13" t="n">
-        <v>97.73468623594148</v>
+        <v>97.73468623594151</v>
       </c>
       <c r="N13" t="n">
-        <v>95.41077384501563</v>
+        <v>95.41077384501564</v>
       </c>
       <c r="O13" t="n">
-        <v>88.12729232711355</v>
+        <v>88.12729232711357</v>
       </c>
       <c r="P13" t="n">
         <v>75.40812304604566</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.20867568980208</v>
+        <v>52.20867568980209</v>
       </c>
       <c r="R13" t="n">
-        <v>28.03431874517001</v>
+        <v>28.03431874517002</v>
       </c>
       <c r="S13" t="n">
         <v>10.86570744732934</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.389961081960851</v>
+        <v>1.389961081960853</v>
       </c>
       <c r="H14" t="n">
-        <v>14.23493893063157</v>
+        <v>14.23493893063159</v>
       </c>
       <c r="I14" t="n">
-        <v>53.58647461229577</v>
+        <v>53.58647461229583</v>
       </c>
       <c r="J14" t="n">
-        <v>117.9712093800749</v>
+        <v>117.971209380075</v>
       </c>
       <c r="K14" t="n">
-        <v>176.8082619794778</v>
+        <v>176.808261979478</v>
       </c>
       <c r="L14" t="n">
-        <v>219.3462834415373</v>
+        <v>219.3462834415375</v>
       </c>
       <c r="M14" t="n">
-        <v>244.0650038328585</v>
+        <v>244.0650038328588</v>
       </c>
       <c r="N14" t="n">
-        <v>248.0142307569798</v>
+        <v>248.0142307569801</v>
       </c>
       <c r="O14" t="n">
-        <v>234.1928052482316</v>
+        <v>234.1928052482318</v>
       </c>
       <c r="P14" t="n">
-        <v>199.878141037323</v>
+        <v>199.8781410373232</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.1001597896</v>
+        <v>150.1001597896002</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472342</v>
+        <v>87.3121428147235</v>
       </c>
       <c r="S14" t="n">
-        <v>31.67373815518294</v>
+        <v>31.67373815518297</v>
       </c>
       <c r="T14" t="n">
-        <v>6.08455463628363</v>
+        <v>6.084554636283636</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1111968865568681</v>
+        <v>0.1111968865568682</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7436947430510354</v>
+        <v>0.7436947430510361</v>
       </c>
       <c r="H15" t="n">
-        <v>7.182525544729738</v>
+        <v>7.182525544729745</v>
       </c>
       <c r="I15" t="n">
-        <v>25.60527953048521</v>
+        <v>25.60527953048524</v>
       </c>
       <c r="J15" t="n">
-        <v>70.26284412308051</v>
+        <v>70.26284412308058</v>
       </c>
       <c r="K15" t="n">
-        <v>120.0903919074999</v>
+        <v>120.0903919075</v>
       </c>
       <c r="L15" t="n">
-        <v>161.4763519944803</v>
+        <v>161.4763519944805</v>
       </c>
       <c r="M15" t="n">
-        <v>188.4352864300803</v>
+        <v>188.4352864300805</v>
       </c>
       <c r="N15" t="n">
-        <v>193.4226077551901</v>
+        <v>193.4226077551903</v>
       </c>
       <c r="O15" t="n">
-        <v>176.9438979223224</v>
+        <v>176.9438979223226</v>
       </c>
       <c r="P15" t="n">
-        <v>142.0130777322631</v>
+        <v>142.0130777322632</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.93198158665498</v>
+        <v>94.93198158665507</v>
       </c>
       <c r="R15" t="n">
-        <v>46.1743104501336</v>
+        <v>46.17431045013365</v>
       </c>
       <c r="S15" t="n">
-        <v>13.81380367026813</v>
+        <v>13.81380367026814</v>
       </c>
       <c r="T15" t="n">
-        <v>2.997611705543427</v>
+        <v>2.997611705543429</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04892728572704182</v>
+        <v>0.04892728572704187</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6234886902484233</v>
+        <v>0.6234886902484239</v>
       </c>
       <c r="H16" t="n">
-        <v>5.543381264208713</v>
+        <v>5.543381264208719</v>
       </c>
       <c r="I16" t="n">
-        <v>18.75000533947077</v>
+        <v>18.75000533947079</v>
       </c>
       <c r="J16" t="n">
-        <v>44.08065040056353</v>
+        <v>44.08065040056357</v>
       </c>
       <c r="K16" t="n">
-        <v>72.43804964886226</v>
+        <v>72.43804964886233</v>
       </c>
       <c r="L16" t="n">
-        <v>92.69576400293379</v>
+        <v>92.69576400293388</v>
       </c>
       <c r="M16" t="n">
-        <v>97.73468623594147</v>
+        <v>97.73468623594157</v>
       </c>
       <c r="N16" t="n">
-        <v>95.41077384501561</v>
+        <v>95.4107738450157</v>
       </c>
       <c r="O16" t="n">
-        <v>88.12729232711354</v>
+        <v>88.12729232711362</v>
       </c>
       <c r="P16" t="n">
-        <v>75.40812304604565</v>
+        <v>75.40812304604572</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.20867568980207</v>
+        <v>52.20867568980212</v>
       </c>
       <c r="R16" t="n">
-        <v>28.03431874517001</v>
+        <v>28.03431874517004</v>
       </c>
       <c r="S16" t="n">
-        <v>10.86570744732934</v>
+        <v>10.86570744732935</v>
       </c>
       <c r="T16" t="n">
-        <v>2.663997131061445</v>
+        <v>2.663997131061447</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0340084740135504</v>
+        <v>0.03400847401355044</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.389961081960852</v>
+        <v>1.389961081960853</v>
       </c>
       <c r="H17" t="n">
-        <v>14.23493893063158</v>
+        <v>14.23493893063159</v>
       </c>
       <c r="I17" t="n">
-        <v>53.58647461229579</v>
+        <v>53.58647461229583</v>
       </c>
       <c r="J17" t="n">
-        <v>117.9712093800749</v>
+        <v>117.971209380075</v>
       </c>
       <c r="K17" t="n">
-        <v>176.8082619794778</v>
+        <v>176.808261979478</v>
       </c>
       <c r="L17" t="n">
-        <v>219.3462834415373</v>
+        <v>219.3462834415375</v>
       </c>
       <c r="M17" t="n">
-        <v>244.0650038328586</v>
+        <v>244.0650038328588</v>
       </c>
       <c r="N17" t="n">
-        <v>248.0142307569799</v>
+        <v>248.0142307569801</v>
       </c>
       <c r="O17" t="n">
-        <v>234.1928052482316</v>
+        <v>234.1928052482318</v>
       </c>
       <c r="P17" t="n">
-        <v>199.8781410373231</v>
+        <v>199.8781410373232</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.1001597896</v>
+        <v>150.1001597896002</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472343</v>
+        <v>87.3121428147235</v>
       </c>
       <c r="S17" t="n">
-        <v>31.67373815518294</v>
+        <v>31.67373815518297</v>
       </c>
       <c r="T17" t="n">
-        <v>6.084554636283631</v>
+        <v>6.084554636283636</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1111968865568681</v>
+        <v>0.1111968865568682</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7436947430510356</v>
+        <v>0.7436947430510361</v>
       </c>
       <c r="H18" t="n">
-        <v>7.182525544729739</v>
+        <v>7.182525544729745</v>
       </c>
       <c r="I18" t="n">
-        <v>25.60527953048522</v>
+        <v>25.60527953048524</v>
       </c>
       <c r="J18" t="n">
-        <v>70.26284412308053</v>
+        <v>70.26284412308058</v>
       </c>
       <c r="K18" t="n">
-        <v>120.0903919074999</v>
+        <v>120.0903919075</v>
       </c>
       <c r="L18" t="n">
-        <v>161.4763519944803</v>
+        <v>161.4763519944805</v>
       </c>
       <c r="M18" t="n">
-        <v>188.4352864300803</v>
+        <v>188.4352864300805</v>
       </c>
       <c r="N18" t="n">
-        <v>193.4226077551902</v>
+        <v>193.4226077551903</v>
       </c>
       <c r="O18" t="n">
-        <v>176.9438979223225</v>
+        <v>176.9438979223226</v>
       </c>
       <c r="P18" t="n">
-        <v>142.0130777322631</v>
+        <v>142.0130777322632</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.931981586655</v>
+        <v>94.93198158665507</v>
       </c>
       <c r="R18" t="n">
-        <v>46.17431045013361</v>
+        <v>46.17431045013365</v>
       </c>
       <c r="S18" t="n">
-        <v>13.81380367026813</v>
+        <v>13.81380367026814</v>
       </c>
       <c r="T18" t="n">
-        <v>2.997611705543427</v>
+        <v>2.997611705543429</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04892728572704183</v>
+        <v>0.04892728572704187</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6234886902484235</v>
+        <v>0.6234886902484239</v>
       </c>
       <c r="H19" t="n">
-        <v>5.543381264208714</v>
+        <v>5.543381264208719</v>
       </c>
       <c r="I19" t="n">
-        <v>18.75000533947077</v>
+        <v>18.75000533947079</v>
       </c>
       <c r="J19" t="n">
-        <v>44.08065040056353</v>
+        <v>44.08065040056357</v>
       </c>
       <c r="K19" t="n">
-        <v>72.43804964886228</v>
+        <v>72.43804964886233</v>
       </c>
       <c r="L19" t="n">
-        <v>92.6957640029338</v>
+        <v>92.69576400293388</v>
       </c>
       <c r="M19" t="n">
-        <v>97.73468623594148</v>
+        <v>97.73468623594157</v>
       </c>
       <c r="N19" t="n">
-        <v>95.41077384501563</v>
+        <v>95.4107738450157</v>
       </c>
       <c r="O19" t="n">
-        <v>88.12729232711355</v>
+        <v>88.12729232711362</v>
       </c>
       <c r="P19" t="n">
-        <v>75.40812304604566</v>
+        <v>75.40812304604572</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.20867568980208</v>
+        <v>52.20867568980212</v>
       </c>
       <c r="R19" t="n">
-        <v>28.03431874517001</v>
+        <v>28.03431874517004</v>
       </c>
       <c r="S19" t="n">
-        <v>10.86570744732934</v>
+        <v>10.86570744732935</v>
       </c>
       <c r="T19" t="n">
-        <v>2.663997131061445</v>
+        <v>2.663997131061447</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03400847401355041</v>
+        <v>0.03400847401355044</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.389961081960851</v>
+        <v>1.389961081960853</v>
       </c>
       <c r="H20" t="n">
-        <v>14.23493893063157</v>
+        <v>14.23493893063159</v>
       </c>
       <c r="I20" t="n">
-        <v>53.58647461229577</v>
+        <v>53.58647461229583</v>
       </c>
       <c r="J20" t="n">
-        <v>117.9712093800749</v>
+        <v>117.971209380075</v>
       </c>
       <c r="K20" t="n">
-        <v>176.8082619794778</v>
+        <v>176.808261979478</v>
       </c>
       <c r="L20" t="n">
-        <v>219.3462834415372</v>
+        <v>219.3462834415375</v>
       </c>
       <c r="M20" t="n">
-        <v>244.0650038328585</v>
+        <v>244.0650038328588</v>
       </c>
       <c r="N20" t="n">
-        <v>248.0142307569798</v>
+        <v>248.0142307569801</v>
       </c>
       <c r="O20" t="n">
-        <v>234.1928052482316</v>
+        <v>234.1928052482318</v>
       </c>
       <c r="P20" t="n">
-        <v>199.878141037323</v>
+        <v>199.8781410373232</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.1001597896</v>
+        <v>150.1001597896002</v>
       </c>
       <c r="R20" t="n">
-        <v>87.3121428147234</v>
+        <v>87.3121428147235</v>
       </c>
       <c r="S20" t="n">
-        <v>31.67373815518293</v>
+        <v>31.67373815518297</v>
       </c>
       <c r="T20" t="n">
-        <v>6.084554636283629</v>
+        <v>6.084554636283636</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1111968865568681</v>
+        <v>0.1111968865568682</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7436947430510353</v>
+        <v>0.7436947430510361</v>
       </c>
       <c r="H21" t="n">
-        <v>7.182525544729737</v>
+        <v>7.182525544729745</v>
       </c>
       <c r="I21" t="n">
-        <v>25.60527953048521</v>
+        <v>25.60527953048524</v>
       </c>
       <c r="J21" t="n">
-        <v>70.2628441230805</v>
+        <v>70.26284412308058</v>
       </c>
       <c r="K21" t="n">
-        <v>120.0903919074998</v>
+        <v>120.0903919075</v>
       </c>
       <c r="L21" t="n">
-        <v>161.4763519944803</v>
+        <v>161.4763519944805</v>
       </c>
       <c r="M21" t="n">
-        <v>188.4352864300803</v>
+        <v>188.4352864300805</v>
       </c>
       <c r="N21" t="n">
-        <v>193.4226077551901</v>
+        <v>193.4226077551903</v>
       </c>
       <c r="O21" t="n">
-        <v>176.9438979223224</v>
+        <v>176.9438979223226</v>
       </c>
       <c r="P21" t="n">
-        <v>142.013077732263</v>
+        <v>142.0130777322632</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.93198158665497</v>
+        <v>94.93198158665507</v>
       </c>
       <c r="R21" t="n">
-        <v>46.1743104501336</v>
+        <v>46.17431045013365</v>
       </c>
       <c r="S21" t="n">
-        <v>13.81380367026812</v>
+        <v>13.81380367026814</v>
       </c>
       <c r="T21" t="n">
-        <v>2.997611705543426</v>
+        <v>2.997611705543429</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04892728572704182</v>
+        <v>0.04892728572704187</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6234886902484232</v>
+        <v>0.6234886902484239</v>
       </c>
       <c r="H22" t="n">
-        <v>5.543381264208712</v>
+        <v>5.543381264208719</v>
       </c>
       <c r="I22" t="n">
-        <v>18.75000533947077</v>
+        <v>18.75000533947079</v>
       </c>
       <c r="J22" t="n">
-        <v>44.08065040056352</v>
+        <v>44.08065040056357</v>
       </c>
       <c r="K22" t="n">
-        <v>72.43804964886225</v>
+        <v>72.43804964886233</v>
       </c>
       <c r="L22" t="n">
-        <v>92.69576400293377</v>
+        <v>92.69576400293388</v>
       </c>
       <c r="M22" t="n">
-        <v>97.73468623594145</v>
+        <v>97.73468623594157</v>
       </c>
       <c r="N22" t="n">
-        <v>95.4107738450156</v>
+        <v>95.4107738450157</v>
       </c>
       <c r="O22" t="n">
-        <v>88.12729232711352</v>
+        <v>88.12729232711362</v>
       </c>
       <c r="P22" t="n">
-        <v>75.40812304604563</v>
+        <v>75.40812304604572</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.20867568980206</v>
+        <v>52.20867568980212</v>
       </c>
       <c r="R22" t="n">
-        <v>28.03431874517</v>
+        <v>28.03431874517004</v>
       </c>
       <c r="S22" t="n">
-        <v>10.86570744732933</v>
+        <v>10.86570744732935</v>
       </c>
       <c r="T22" t="n">
-        <v>2.663997131061444</v>
+        <v>2.663997131061447</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03400847401355039</v>
+        <v>0.03400847401355044</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34383,7 +34383,7 @@
         <v>395.6651653192952</v>
       </c>
       <c r="O44" t="n">
-        <v>373.615395867857</v>
+        <v>373.6153958678574</v>
       </c>
       <c r="P44" t="n">
         <v>318.8720964755372</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.096607794625498</v>
+        <v>1.096607794625697</v>
       </c>
       <c r="L2" t="n">
-        <v>16.45661424344785</v>
+        <v>16.45661424344809</v>
       </c>
       <c r="M2" t="n">
-        <v>31.26683315033891</v>
+        <v>31.26683315033919</v>
       </c>
       <c r="N2" t="n">
-        <v>31.26683315033891</v>
+        <v>31.26683315033919</v>
       </c>
       <c r="O2" t="n">
-        <v>26.32906679914514</v>
+        <v>26.32906679914541</v>
       </c>
       <c r="P2" t="n">
-        <v>8.357203562645239</v>
+        <v>8.357203562645466</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5.461602248101102</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.326068042319826</v>
+        <v>11.78767029042103</v>
       </c>
       <c r="M3" t="n">
-        <v>31.26683315033891</v>
+        <v>31.26683315033919</v>
       </c>
       <c r="N3" t="n">
-        <v>31.26683315033891</v>
+        <v>31.26683315033919</v>
       </c>
       <c r="O3" t="n">
-        <v>31.26683315033891</v>
+        <v>31.26683315033919</v>
       </c>
       <c r="P3" t="n">
-        <v>18.21585647000531</v>
+        <v>18.21585647000546</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>5.633336333898995</v>
+        <v>5.633336333898939</v>
       </c>
       <c r="L5" t="n">
-        <v>22.08482716139564</v>
+        <v>22.08482716139557</v>
       </c>
       <c r="M5" t="n">
-        <v>37.52930446208647</v>
+        <v>37.52930446208639</v>
       </c>
       <c r="N5" t="n">
-        <v>37.52930446208646</v>
+        <v>37.52930446208639</v>
       </c>
       <c r="O5" t="n">
-        <v>32.33822706896042</v>
+        <v>32.33822706896035</v>
       </c>
       <c r="P5" t="n">
-        <v>13.48588282609623</v>
+        <v>13.48588282609616</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>8.543005244543259</v>
+        <v>8.543005244543217</v>
       </c>
       <c r="L6" t="n">
-        <v>30.4372552961803</v>
+        <v>30.43725529618024</v>
       </c>
       <c r="M6" t="n">
-        <v>13.14059473274104</v>
+        <v>37.52930446208639</v>
       </c>
       <c r="N6" t="n">
-        <v>37.52930446208646</v>
+        <v>37.52930446208639</v>
       </c>
       <c r="O6" t="n">
-        <v>37.09094825419695</v>
+        <v>12.70223852485152</v>
       </c>
       <c r="P6" t="n">
-        <v>21.85977432477617</v>
+        <v>21.85977432477611</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>33.94108615658632</v>
       </c>
       <c r="M9" t="n">
-        <v>23.4207294386612</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="N9" t="n">
         <v>45.40562735059407</v>
@@ -35269,7 +35269,7 @@
         <v>40.93040513096589</v>
       </c>
       <c r="P9" t="n">
-        <v>24.94127696088076</v>
+        <v>2.956379048947898</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>44.64761804676699</v>
+        <v>44.64761804676702</v>
       </c>
       <c r="K11" t="n">
-        <v>87.67187230626071</v>
+        <v>87.67187230626074</v>
       </c>
       <c r="L11" t="n">
         <v>123.8608853786925</v>
       </c>
       <c r="M11" t="n">
-        <v>150.7747793758131</v>
+        <v>150.7747793758132</v>
       </c>
       <c r="N11" t="n">
-        <v>155.1019400003605</v>
+        <v>155.1019400003606</v>
       </c>
       <c r="O11" t="n">
         <v>141.0030296224485</v>
@@ -35430,7 +35430,7 @@
         <v>106.2287777564389</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.06635539044797</v>
+        <v>60.066355390448</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>18.89360532308051</v>
       </c>
       <c r="K12" t="n">
-        <v>64.26460912288451</v>
+        <v>64.26460912288454</v>
       </c>
       <c r="L12" t="n">
         <v>105.3618281836313</v>
@@ -35506,10 +35506,10 @@
         <v>119.1924189223225</v>
       </c>
       <c r="P12" t="n">
-        <v>87.75344272945935</v>
+        <v>87.75344272945938</v>
       </c>
       <c r="Q12" t="n">
-        <v>38.23936308181628</v>
+        <v>38.23936308181629</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>20.18768008979545</v>
       </c>
       <c r="L13" t="n">
-        <v>38.06747010903229</v>
+        <v>38.06747010903231</v>
       </c>
       <c r="M13" t="n">
-        <v>41.46974373716144</v>
+        <v>41.46974373716147</v>
       </c>
       <c r="N13" t="n">
-        <v>43.69812833659618</v>
+        <v>43.6981283365962</v>
       </c>
       <c r="O13" t="n">
-        <v>32.05239425411722</v>
+        <v>32.05239425411724</v>
       </c>
       <c r="P13" t="n">
         <v>19.62828140614088</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.64761804676698</v>
+        <v>44.64761804676709</v>
       </c>
       <c r="K14" t="n">
-        <v>87.67187230626068</v>
+        <v>87.67187230626085</v>
       </c>
       <c r="L14" t="n">
-        <v>123.8608853786924</v>
+        <v>123.8608853786927</v>
       </c>
       <c r="M14" t="n">
-        <v>150.7747793758131</v>
+        <v>150.7747793758133</v>
       </c>
       <c r="N14" t="n">
-        <v>155.1019400003605</v>
+        <v>155.1019400003607</v>
       </c>
       <c r="O14" t="n">
-        <v>141.0030296224485</v>
+        <v>141.0030296224487</v>
       </c>
       <c r="P14" t="n">
-        <v>106.2287777564389</v>
+        <v>106.2287777564391</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.06635539044797</v>
+        <v>60.06635539044811</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>18.8936053230805</v>
+        <v>18.89360532308057</v>
       </c>
       <c r="K15" t="n">
-        <v>64.26460912288448</v>
+        <v>64.26460912288459</v>
       </c>
       <c r="L15" t="n">
-        <v>105.3618281836312</v>
+        <v>105.3618281836314</v>
       </c>
       <c r="M15" t="n">
-        <v>130.8710026916629</v>
+        <v>130.8710026916631</v>
       </c>
       <c r="N15" t="n">
-        <v>140.2292143614401</v>
+        <v>140.2292143614403</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1924189223224</v>
+        <v>119.1924189223226</v>
       </c>
       <c r="P15" t="n">
-        <v>87.75344272945932</v>
+        <v>87.75344272945946</v>
       </c>
       <c r="Q15" t="n">
-        <v>38.23936308181626</v>
+        <v>38.23936308181635</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>20.18768008979544</v>
+        <v>20.18768008979551</v>
       </c>
       <c r="L16" t="n">
-        <v>38.06747010903228</v>
+        <v>38.06747010903238</v>
       </c>
       <c r="M16" t="n">
-        <v>41.46974373716142</v>
+        <v>41.46974373716152</v>
       </c>
       <c r="N16" t="n">
-        <v>43.69812833659617</v>
+        <v>43.69812833659626</v>
       </c>
       <c r="O16" t="n">
-        <v>32.05239425411721</v>
+        <v>32.0523942541173</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62828140614086</v>
+        <v>19.62828140614094</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>44.64761804676699</v>
+        <v>44.64761804676709</v>
       </c>
       <c r="K17" t="n">
-        <v>87.67187230626071</v>
+        <v>87.67187230626085</v>
       </c>
       <c r="L17" t="n">
-        <v>123.8608853786925</v>
+        <v>123.8608853786927</v>
       </c>
       <c r="M17" t="n">
-        <v>150.7747793758131</v>
+        <v>150.7747793758133</v>
       </c>
       <c r="N17" t="n">
-        <v>155.1019400003605</v>
+        <v>155.1019400003607</v>
       </c>
       <c r="O17" t="n">
-        <v>141.0030296224485</v>
+        <v>141.0030296224487</v>
       </c>
       <c r="P17" t="n">
-        <v>106.2287777564389</v>
+        <v>106.2287777564391</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.06635539044797</v>
+        <v>60.06635539044811</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18.89360532308051</v>
+        <v>18.89360532308057</v>
       </c>
       <c r="K18" t="n">
-        <v>64.26460912288451</v>
+        <v>64.26460912288459</v>
       </c>
       <c r="L18" t="n">
-        <v>105.3618281836313</v>
+        <v>105.3618281836314</v>
       </c>
       <c r="M18" t="n">
-        <v>130.8710026916629</v>
+        <v>130.8710026916631</v>
       </c>
       <c r="N18" t="n">
-        <v>140.2292143614402</v>
+        <v>140.2292143614403</v>
       </c>
       <c r="O18" t="n">
-        <v>119.1924189223225</v>
+        <v>119.1924189223226</v>
       </c>
       <c r="P18" t="n">
-        <v>87.75344272945935</v>
+        <v>87.75344272945946</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.23936308181628</v>
+        <v>38.23936308181635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>20.18768008979545</v>
+        <v>20.18768008979551</v>
       </c>
       <c r="L19" t="n">
-        <v>38.06747010903229</v>
+        <v>38.06747010903238</v>
       </c>
       <c r="M19" t="n">
-        <v>41.46974373716144</v>
+        <v>41.46974373716152</v>
       </c>
       <c r="N19" t="n">
-        <v>43.69812833659618</v>
+        <v>43.69812833659626</v>
       </c>
       <c r="O19" t="n">
-        <v>32.05239425411722</v>
+        <v>32.0523942541173</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62828140614088</v>
+        <v>19.62828140614094</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.64761804676696</v>
+        <v>44.64761804676709</v>
       </c>
       <c r="K20" t="n">
-        <v>87.67187230626065</v>
+        <v>87.67187230626085</v>
       </c>
       <c r="L20" t="n">
-        <v>123.8608853786924</v>
+        <v>123.8608853786927</v>
       </c>
       <c r="M20" t="n">
-        <v>150.774779375813</v>
+        <v>150.7747793758133</v>
       </c>
       <c r="N20" t="n">
-        <v>155.1019400003605</v>
+        <v>155.1019400003607</v>
       </c>
       <c r="O20" t="n">
-        <v>141.0030296224484</v>
+        <v>141.0030296224487</v>
       </c>
       <c r="P20" t="n">
-        <v>106.2287777564389</v>
+        <v>106.2287777564391</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.06635539044794</v>
+        <v>60.06635539044811</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>18.89360532308049</v>
+        <v>18.89360532308057</v>
       </c>
       <c r="K21" t="n">
-        <v>64.26460912288445</v>
+        <v>64.26460912288459</v>
       </c>
       <c r="L21" t="n">
-        <v>105.3618281836312</v>
+        <v>105.3618281836314</v>
       </c>
       <c r="M21" t="n">
-        <v>130.8710026916628</v>
+        <v>130.8710026916631</v>
       </c>
       <c r="N21" t="n">
-        <v>140.2292143614401</v>
+        <v>140.2292143614403</v>
       </c>
       <c r="O21" t="n">
-        <v>119.1924189223224</v>
+        <v>119.1924189223226</v>
       </c>
       <c r="P21" t="n">
-        <v>87.75344272945929</v>
+        <v>87.75344272945946</v>
       </c>
       <c r="Q21" t="n">
-        <v>38.23936308181625</v>
+        <v>38.23936308181635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.18768008979542</v>
+        <v>20.18768008979551</v>
       </c>
       <c r="L22" t="n">
-        <v>38.06747010903226</v>
+        <v>38.06747010903238</v>
       </c>
       <c r="M22" t="n">
-        <v>41.46974373716141</v>
+        <v>41.46974373716152</v>
       </c>
       <c r="N22" t="n">
-        <v>43.69812833659616</v>
+        <v>43.69812833659626</v>
       </c>
       <c r="O22" t="n">
-        <v>32.0523942541172</v>
+        <v>32.0523942541173</v>
       </c>
       <c r="P22" t="n">
-        <v>19.62828140614085</v>
+        <v>19.62828140614094</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>302.7528745626759</v>
       </c>
       <c r="O44" t="n">
-        <v>280.4256202420739</v>
+        <v>280.4256202420743</v>
       </c>
       <c r="P44" t="n">
         <v>225.222733194653</v>
